--- a/Data.xlsx
+++ b/Data.xlsx
@@ -16,15 +16,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>nsga_II_robust_2_0_x1</t>
-  </si>
-  <si>
-    <t>nsga_II_robust_2_0_x2</t>
-  </si>
-  <si>
-    <t>nsga_II_robust_2_0_x3</t>
-  </si>
-  <si>
     <t>an_non_robust_0_x1</t>
   </si>
   <si>
@@ -32,6 +23,15 @@
   </si>
   <si>
     <t>an_non_robust_0_x3</t>
+  </si>
+  <si>
+    <t>nsga_II_non_robust_0_x1</t>
+  </si>
+  <si>
+    <t>nsga_II_non_robust_0_x2</t>
+  </si>
+  <si>
+    <t>nsga_II_non_robust_0_x3</t>
   </si>
 </sst>
 </file>
@@ -396,11 +396,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -428,22 +428,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4953326954101676</v>
+        <v>6.084967756245763e-12</v>
       </c>
       <c r="C2">
-        <v>0.3515415810837282</v>
+        <v>1.910731022112457e-11</v>
       </c>
       <c r="D2">
-        <v>0.1531257235061042</v>
+        <v>0.9999999999748077</v>
       </c>
       <c r="E2">
-        <v>6.084967756245763e-12</v>
+        <v>0.4665099882491187</v>
       </c>
       <c r="F2">
-        <v>1.910731022112457e-11</v>
+        <v>0.3654524089306698</v>
       </c>
       <c r="G2">
-        <v>0.9999999999748077</v>
+        <v>0.1680376028202115</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -451,22 +451,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4649674096242595</v>
+        <v>4.151548774419828e-11</v>
       </c>
       <c r="C3">
-        <v>0.3612691556829899</v>
+        <v>1.06293598231871e-09</v>
       </c>
       <c r="D3">
-        <v>0.1737634346927507</v>
+        <v>0.9999999988955486</v>
       </c>
       <c r="E3">
-        <v>4.151548774419828e-11</v>
+        <v>0.007097651114449198</v>
       </c>
       <c r="F3">
-        <v>1.06293598231871e-09</v>
+        <v>0.4795670913556483</v>
       </c>
       <c r="G3">
-        <v>0.9999999988955486</v>
+        <v>0.5133352575299025</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -474,22 +474,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4827635627414919</v>
+        <v>4.082427526847138e-12</v>
       </c>
       <c r="C4">
-        <v>0.3570695117301346</v>
+        <v>1.624597650801496e-11</v>
       </c>
       <c r="D4">
-        <v>0.1601669255283735</v>
+        <v>0.9999999999796716</v>
       </c>
       <c r="E4">
-        <v>4.082427526847138e-12</v>
+        <v>0.4441344563546896</v>
       </c>
       <c r="F4">
-        <v>1.624597650801496e-11</v>
+        <v>0.3650251723556336</v>
       </c>
       <c r="G4">
-        <v>0.9999999999796716</v>
+        <v>0.1908403712896768</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -497,22 +497,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0004967337030206472</v>
+        <v>4.494198900635221e-11</v>
       </c>
       <c r="C5">
-        <v>0.0002551237321379175</v>
+        <v>6.642566912734225e-10</v>
       </c>
       <c r="D5">
-        <v>0.9992481425648415</v>
+        <v>0.9999999992908014</v>
       </c>
       <c r="E5">
-        <v>4.494198900635221e-11</v>
+        <v>0.4250225825075676</v>
       </c>
       <c r="F5">
-        <v>6.642566912734225e-10</v>
+        <v>0.3711806644931365</v>
       </c>
       <c r="G5">
-        <v>0.9999999992908014</v>
+        <v>0.2037967529992959</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -520,22 +520,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.134607171962141</v>
+        <v>3.569742669043105e-13</v>
       </c>
       <c r="C6">
-        <v>0.4751173297944814</v>
+        <v>1.010209914392188e-11</v>
       </c>
       <c r="D6">
-        <v>0.3902754982433776</v>
+        <v>0.9999999999895409</v>
       </c>
       <c r="E6">
-        <v>3.569742669043105e-13</v>
+        <v>0.001495354873363213</v>
       </c>
       <c r="F6">
-        <v>1.010209914392188e-11</v>
+        <v>0.2518543243996851</v>
       </c>
       <c r="G6">
-        <v>0.9999999999895409</v>
+        <v>0.7466503207269518</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -543,22 +543,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.001185855496710398</v>
+        <v>2.396073819999061e-10</v>
       </c>
       <c r="C7">
-        <v>0.5007307561206623</v>
+        <v>3.274424948506233e-09</v>
       </c>
       <c r="D7">
-        <v>0.4980833883826273</v>
+        <v>0.9999999964859677</v>
       </c>
       <c r="E7">
-        <v>2.396073819999061e-10</v>
+        <v>0.1943449101585855</v>
       </c>
       <c r="F7">
-        <v>3.274424948506233e-09</v>
+        <v>0.4440485278977785</v>
       </c>
       <c r="G7">
-        <v>0.9999999964859677</v>
+        <v>0.3616065619436361</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -566,22 +566,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0003649841887921019</v>
+        <v>9.467891047914461e-12</v>
       </c>
       <c r="C8">
-        <v>0.04890408395098336</v>
+        <v>1.743390713712982e-11</v>
       </c>
       <c r="D8">
-        <v>0.9507309318602246</v>
+        <v>0.9999999999730981</v>
       </c>
       <c r="E8">
-        <v>9.467891047914461e-12</v>
+        <v>0.0003036197907385922</v>
       </c>
       <c r="F8">
-        <v>1.743390713712982e-11</v>
+        <v>0.4810597274337284</v>
       </c>
       <c r="G8">
-        <v>0.9999999999730981</v>
+        <v>0.5186366527755329</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -589,22 +589,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0003952122387399164</v>
+        <v>7.100396630480012e-12</v>
       </c>
       <c r="C9">
-        <v>0.0230164179157798</v>
+        <v>1.940705860665538e-11</v>
       </c>
       <c r="D9">
-        <v>0.9765883698454803</v>
+        <v>0.9999999999734925</v>
       </c>
       <c r="E9">
-        <v>7.100396630480012e-12</v>
+        <v>0.2294925061590036</v>
       </c>
       <c r="F9">
-        <v>1.940705860665538e-11</v>
+        <v>0.4376908751132857</v>
       </c>
       <c r="G9">
-        <v>0.9999999999734925</v>
+        <v>0.3328166187277107</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -612,22 +612,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1409396302758284</v>
+        <v>7.023844284386932e-12</v>
       </c>
       <c r="C10">
-        <v>0.4759975056185473</v>
+        <v>1.984190006870603e-11</v>
       </c>
       <c r="D10">
-        <v>0.3830628641056242</v>
+        <v>0.9999999999731346</v>
       </c>
       <c r="E10">
-        <v>7.023844284386932e-12</v>
+        <v>0.4374183240211469</v>
       </c>
       <c r="F10">
-        <v>1.984190006870603e-11</v>
+        <v>0.365097980114172</v>
       </c>
       <c r="G10">
-        <v>0.9999999999731346</v>
+        <v>0.1974836958646811</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -635,22 +635,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4724544096769639</v>
+        <v>6.946683616804585e-12</v>
       </c>
       <c r="C11">
-        <v>0.3641455508627004</v>
+        <v>2.028913321099788e-11</v>
       </c>
       <c r="D11">
-        <v>0.1634000394603357</v>
+        <v>0.9999999999727642</v>
       </c>
       <c r="E11">
-        <v>6.946683616804585e-12</v>
+        <v>0.002370751065178157</v>
       </c>
       <c r="F11">
-        <v>2.028913321099788e-11</v>
+        <v>0.3144328797632643</v>
       </c>
       <c r="G11">
-        <v>0.9999999999727642</v>
+        <v>0.6831963691715576</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -658,22 +658,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.0007533706675719507</v>
+        <v>6.869720941704587e-12</v>
       </c>
       <c r="C12">
-        <v>0.3256192153448758</v>
+        <v>2.075035068661581e-11</v>
       </c>
       <c r="D12">
-        <v>0.6736274139875522</v>
+        <v>0.9999999999723801</v>
       </c>
       <c r="E12">
-        <v>6.869720941704587e-12</v>
+        <v>0.03494655780585346</v>
       </c>
       <c r="F12">
-        <v>2.075035068661581e-11</v>
+        <v>0.5081955608480462</v>
       </c>
       <c r="G12">
-        <v>0.9999999999723801</v>
+        <v>0.4568578813461004</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -681,22 +681,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.0003212720874101371</v>
+        <v>6.793719436391971e-12</v>
       </c>
       <c r="C13">
-        <v>0.3013944948669512</v>
+        <v>2.122737520316045e-11</v>
       </c>
       <c r="D13">
-        <v>0.6982842330456387</v>
+        <v>0.9999999999719791</v>
       </c>
       <c r="E13">
-        <v>6.793719436391971e-12</v>
+        <v>0.3985712721265446</v>
       </c>
       <c r="F13">
-        <v>2.122737520316045e-11</v>
+        <v>0.373998251029672</v>
       </c>
       <c r="G13">
-        <v>0.9999999999719791</v>
+        <v>0.2274304768437832</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -704,22 +704,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.0004183253637372995</v>
+        <v>6.71939605184002e-12</v>
       </c>
       <c r="C14">
-        <v>0.04228798087393605</v>
+        <v>2.172225396762816e-11</v>
       </c>
       <c r="D14">
-        <v>0.9572936937623266</v>
+        <v>0.9999999999715584</v>
       </c>
       <c r="E14">
-        <v>6.71939605184002e-12</v>
+        <v>0.4486337399012609</v>
       </c>
       <c r="F14">
-        <v>2.172225396762816e-11</v>
+        <v>0.3670989681942371</v>
       </c>
       <c r="G14">
-        <v>0.9999999999715584</v>
+        <v>0.1842672919045021</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -727,22 +727,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.001169828280989161</v>
+        <v>6.647420058245362e-12</v>
       </c>
       <c r="C15">
-        <v>0.2428855643185547</v>
+        <v>2.223725235416147e-11</v>
       </c>
       <c r="D15">
-        <v>0.755944607400456</v>
+        <v>0.9999999999711155</v>
       </c>
       <c r="E15">
-        <v>6.647420058245362e-12</v>
+        <v>0.4305674072225106</v>
       </c>
       <c r="F15">
-        <v>2.223725235416147e-11</v>
+        <v>0.369671931995633</v>
       </c>
       <c r="G15">
-        <v>0.9999999999711155</v>
+        <v>0.1997606607818565</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -750,22 +750,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4887308531341046</v>
+        <v>6.116134622990334e-12</v>
       </c>
       <c r="C16">
-        <v>0.3531448562484781</v>
+        <v>2.340987712324771e-12</v>
       </c>
       <c r="D16">
-        <v>0.1581242906174172</v>
+        <v>0.999999999991543</v>
       </c>
       <c r="E16">
-        <v>6.116134622990334e-12</v>
+        <v>0.2034966507062985</v>
       </c>
       <c r="F16">
-        <v>2.340987712324771e-12</v>
+        <v>0.4481663526067807</v>
       </c>
       <c r="G16">
-        <v>0.999999999991543</v>
+        <v>0.3483369966869209</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -773,22 +773,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.0004064807755304464</v>
+        <v>6.100530055088877e-12</v>
       </c>
       <c r="C17">
-        <v>0.05661496237325529</v>
+        <v>4.30982487882001e-12</v>
       </c>
       <c r="D17">
-        <v>0.9429785568512142</v>
+        <v>0.9999999999895898</v>
       </c>
       <c r="E17">
-        <v>6.100530055088877e-12</v>
+        <v>0.4122759336218962</v>
       </c>
       <c r="F17">
-        <v>4.30982487882001e-12</v>
+        <v>0.3848101928987555</v>
       </c>
       <c r="G17">
-        <v>0.9999999999895898</v>
+        <v>0.2029138734793483</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -796,22 +796,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.09239417197577471</v>
+        <v>5.223093332312009e-12</v>
       </c>
       <c r="C18">
-        <v>0.4668006416342188</v>
+        <v>2.125559425757925e-11</v>
       </c>
       <c r="D18">
-        <v>0.4408051863900065</v>
+        <v>0.9999999999735212</v>
       </c>
       <c r="E18">
-        <v>5.223093332312009e-12</v>
+        <v>0.004857402224772939</v>
       </c>
       <c r="F18">
-        <v>2.125559425757925e-11</v>
+        <v>0.4787154319634541</v>
       </c>
       <c r="G18">
-        <v>0.9999999999735212</v>
+        <v>0.5164271658117729</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -819,22 +819,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4345796113596678</v>
+        <v>7.401751352113084e-12</v>
       </c>
       <c r="C19">
-        <v>0.371685152426693</v>
+        <v>3.784686781455712e-12</v>
       </c>
       <c r="D19">
-        <v>0.1937352362136391</v>
+        <v>0.9999999999888134</v>
       </c>
       <c r="E19">
-        <v>7.401751352113084e-12</v>
+        <v>0.4472699126163878</v>
       </c>
       <c r="F19">
-        <v>3.784686781455712e-12</v>
+        <v>0.3641236560354774</v>
       </c>
       <c r="G19">
-        <v>0.9999999999888134</v>
+        <v>0.1886064313481349</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -842,22 +842,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.0003189992930861674</v>
+        <v>3.268842346562435e-12</v>
       </c>
       <c r="C20">
-        <v>0.1215095487059853</v>
+        <v>3.701423474913805e-12</v>
       </c>
       <c r="D20">
-        <v>0.8781714520009286</v>
+        <v>0.9999999999930296</v>
       </c>
       <c r="E20">
-        <v>3.268842346562435e-12</v>
+        <v>0.4261240879775592</v>
       </c>
       <c r="F20">
-        <v>3.701423474913805e-12</v>
+        <v>0.3641242862094948</v>
       </c>
       <c r="G20">
-        <v>0.9999999999930296</v>
+        <v>0.209751625812946</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -865,22 +865,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.08929302496139e-05</v>
+        <v>2.373620768850089e-11</v>
       </c>
       <c r="C21">
-        <v>0.1864810240293988</v>
+        <v>4.726704969674264e-11</v>
       </c>
       <c r="D21">
-        <v>0.8134880830403516</v>
+        <v>0.9999999999289967</v>
       </c>
       <c r="E21">
-        <v>2.373620768850089e-11</v>
+        <v>0.4011258163156119</v>
       </c>
       <c r="F21">
-        <v>4.726704969674264e-11</v>
+        <v>0.3798331910271111</v>
       </c>
       <c r="G21">
-        <v>0.9999999999289967</v>
+        <v>0.2190409926572769</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -888,22 +888,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.0003475474118003403</v>
+        <v>4.478932461573573e-11</v>
       </c>
       <c r="C22">
-        <v>0.4752277849950777</v>
+        <v>6.894458092966633e-10</v>
       </c>
       <c r="D22">
-        <v>0.524424667593122</v>
+        <v>0.999999999265765</v>
       </c>
       <c r="E22">
-        <v>4.478932461573573e-11</v>
+        <v>0.07601042938263483</v>
       </c>
       <c r="F22">
-        <v>6.894458092966633e-10</v>
+        <v>0.4806907189022078</v>
       </c>
       <c r="G22">
-        <v>0.999999999265765</v>
+        <v>0.4432988517151575</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -911,22 +911,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.08067121242858788</v>
+        <v>1.037087411078757e-11</v>
       </c>
       <c r="C23">
-        <v>0.4803985548582211</v>
+        <v>8.690048614670908e-12</v>
       </c>
       <c r="D23">
-        <v>0.4389302327131911</v>
+        <v>0.9999999999809389</v>
       </c>
       <c r="E23">
-        <v>1.037087411078757e-11</v>
+        <v>0.2232638664145467</v>
       </c>
       <c r="F23">
-        <v>8.690048614670908e-12</v>
+        <v>0.4317495833970147</v>
       </c>
       <c r="G23">
-        <v>0.9999999999809389</v>
+        <v>0.3449865501884385</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -934,22 +934,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.0004269155507577071</v>
+        <v>3.733899397314995e-11</v>
       </c>
       <c r="C24">
-        <v>0.2360575823112754</v>
+        <v>5.697376845156573e-10</v>
       </c>
       <c r="D24">
-        <v>0.7635155021379669</v>
+        <v>0.9999999993929236</v>
       </c>
       <c r="E24">
-        <v>3.733899397314995e-11</v>
+        <v>0.3825809226765447</v>
       </c>
       <c r="F24">
-        <v>5.697376845156573e-10</v>
+        <v>0.3873950156525929</v>
       </c>
       <c r="G24">
-        <v>0.9999999993929236</v>
+        <v>0.2300240616708625</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -957,22 +957,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.001215693723818661</v>
+        <v>1.138190715069702e-11</v>
       </c>
       <c r="C25">
-        <v>0.4017813720262234</v>
+        <v>5.210183187236296e-11</v>
       </c>
       <c r="D25">
-        <v>0.597002934249958</v>
+        <v>0.9999999999365164</v>
       </c>
       <c r="E25">
-        <v>1.138190715069702e-11</v>
+        <v>0.2711004439372439</v>
       </c>
       <c r="F25">
-        <v>5.210183187236296e-11</v>
+        <v>0.4157024264105879</v>
       </c>
       <c r="G25">
-        <v>0.9999999999365164</v>
+        <v>0.3131971296521683</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -980,22 +980,22 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.0006769086736876508</v>
+        <v>5.978931739859031e-12</v>
       </c>
       <c r="C26">
-        <v>0.4204979949029942</v>
+        <v>1.186619629371146e-10</v>
       </c>
       <c r="D26">
-        <v>0.5788250964233183</v>
+        <v>0.9999999998753593</v>
       </c>
       <c r="E26">
-        <v>5.978931739859031e-12</v>
+        <v>0.0007443552321856462</v>
       </c>
       <c r="F26">
-        <v>1.186619629371146e-10</v>
+        <v>0.4708127864778229</v>
       </c>
       <c r="G26">
-        <v>0.9999999998753593</v>
+        <v>0.5284428582899915</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1003,22 +1003,22 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.2338570356569996</v>
+        <v>3.22433564793076e-10</v>
       </c>
       <c r="C27">
-        <v>0.454894366073851</v>
+        <v>5.021049268462402e-09</v>
       </c>
       <c r="D27">
-        <v>0.3112485982691495</v>
+        <v>0.9999999946565173</v>
       </c>
       <c r="E27">
-        <v>3.22433564793076e-10</v>
+        <v>0.3335241972707377</v>
       </c>
       <c r="F27">
-        <v>5.021049268462402e-09</v>
+        <v>0.4036826187020917</v>
       </c>
       <c r="G27">
-        <v>0.9999999946565173</v>
+        <v>0.2627931840271706</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1026,22 +1026,22 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.2540425310345303</v>
+        <v>1.619108942299303e-10</v>
       </c>
       <c r="C28">
-        <v>0.4242596038013233</v>
+        <v>1.66891409709117e-09</v>
       </c>
       <c r="D28">
-        <v>0.3216978651641464</v>
+        <v>0.999999998169175</v>
       </c>
       <c r="E28">
-        <v>1.619108942299303e-10</v>
+        <v>0.2911302266667735</v>
       </c>
       <c r="F28">
-        <v>1.66891409709117e-09</v>
+        <v>0.4265854130400963</v>
       </c>
       <c r="G28">
-        <v>0.999999998169175</v>
+        <v>0.2822843602931303</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1049,22 +1049,22 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.0003643266314588187</v>
+        <v>6.10430165797966e-12</v>
       </c>
       <c r="C29">
-        <v>0.004336685308625893</v>
+        <v>9.982768583469139e-11</v>
       </c>
       <c r="D29">
-        <v>0.9952989880599153</v>
+        <v>0.9999999998940682</v>
       </c>
       <c r="E29">
-        <v>6.10430165797966e-12</v>
+        <v>0.003835219139593892</v>
       </c>
       <c r="F29">
-        <v>9.982768583469139e-11</v>
+        <v>0.3022239614489238</v>
       </c>
       <c r="G29">
-        <v>0.9999999998940682</v>
+        <v>0.6939408194114824</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1072,22 +1072,22 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.0005306817536008691</v>
+        <v>6.327817002080042e-12</v>
       </c>
       <c r="C30">
-        <v>0.1139015623105306</v>
+        <v>1.03967932811972e-10</v>
       </c>
       <c r="D30">
-        <v>0.8855677559358686</v>
+        <v>0.999999999889704</v>
       </c>
       <c r="E30">
-        <v>6.327817002080042e-12</v>
+        <v>0.3181546115447811</v>
       </c>
       <c r="F30">
-        <v>1.03967932811972e-10</v>
+        <v>0.4143234156098839</v>
       </c>
       <c r="G30">
-        <v>0.999999999889704</v>
+        <v>0.267521972845335</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1095,22 +1095,22 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.0001937548976639176</v>
+        <v>6.539956195449865e-12</v>
       </c>
       <c r="C31">
-        <v>0.1616874773919292</v>
+        <v>1.074683882528964e-10</v>
       </c>
       <c r="D31">
-        <v>0.8381187677104069</v>
+        <v>0.9999999998859919</v>
       </c>
       <c r="E31">
-        <v>6.539956195449865e-12</v>
+        <v>0.0009546579889920325</v>
       </c>
       <c r="F31">
-        <v>1.074683882528964e-10</v>
+        <v>0.4314816919615335</v>
       </c>
       <c r="G31">
-        <v>0.9999999998859919</v>
+        <v>0.5675636500494743</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1118,22 +1118,22 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.0003539148625518481</v>
+        <v>6.741357348975244e-12</v>
       </c>
       <c r="C32">
-        <v>0.1812289731624416</v>
+        <v>1.104410926790006e-10</v>
       </c>
       <c r="D32">
-        <v>0.8184171119750066</v>
+        <v>0.9999999998828178</v>
       </c>
       <c r="E32">
-        <v>6.741357348975244e-12</v>
+        <v>0.02657214858173625</v>
       </c>
       <c r="F32">
-        <v>1.104410926790006e-10</v>
+        <v>0.5068790769264975</v>
       </c>
       <c r="G32">
-        <v>0.9999999998828178</v>
+        <v>0.4665487744917663</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1141,22 +1141,22 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.0005033447503982652</v>
+        <v>6.932798027896946e-12</v>
       </c>
       <c r="C33">
-        <v>0.09357272784213166</v>
+        <v>1.130219911120133e-10</v>
       </c>
       <c r="D33">
-        <v>0.90592392740747</v>
+        <v>0.9999999998800452</v>
       </c>
       <c r="E33">
-        <v>6.932798027896946e-12</v>
+        <v>0.2010740463800458</v>
       </c>
       <c r="F33">
-        <v>1.130219911120133e-10</v>
+        <v>0.4460114363789342</v>
       </c>
       <c r="G33">
-        <v>0.9999999998800452</v>
+        <v>0.3529145172410199</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1164,22 +1164,22 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.0004887672427874375</v>
+        <v>7.115180173235925e-12</v>
       </c>
       <c r="C34">
-        <v>0.08219807672915461</v>
+        <v>1.153741129361649e-10</v>
       </c>
       <c r="D34">
-        <v>0.917313156028058</v>
+        <v>0.999999999877511</v>
       </c>
       <c r="E34">
-        <v>7.115180173235925e-12</v>
+        <v>0.3892095074828855</v>
       </c>
       <c r="F34">
-        <v>1.153741129361649e-10</v>
+        <v>0.3818972769327266</v>
       </c>
       <c r="G34">
-        <v>0.999999999877511</v>
+        <v>0.2288932155843879</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1187,22 +1187,22 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.0003383587594263344</v>
+        <v>7.2895142160436e-12</v>
       </c>
       <c r="C35">
-        <v>0.3952742047096379</v>
+        <v>1.176927024822576e-10</v>
       </c>
       <c r="D35">
-        <v>0.6043874365309357</v>
+        <v>0.9999999998750178</v>
       </c>
       <c r="E35">
-        <v>7.2895142160436e-12</v>
+        <v>0.4146669060441835</v>
       </c>
       <c r="F35">
-        <v>1.176927024822576e-10</v>
+        <v>0.3716558059154995</v>
       </c>
       <c r="G35">
-        <v>0.9999999998750178</v>
+        <v>0.213677288040317</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1210,22 +1210,22 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.2133116388715437</v>
+        <v>7.456903005828491e-12</v>
       </c>
       <c r="C36">
-        <v>0.4574211612207629</v>
+        <v>1.202130755971964e-10</v>
       </c>
       <c r="D36">
-        <v>0.3292671999076934</v>
+        <v>0.99999999987233</v>
       </c>
       <c r="E36">
-        <v>7.456903005828491e-12</v>
+        <v>0.0004049151112792674</v>
       </c>
       <c r="F36">
-        <v>1.202130755971964e-10</v>
+        <v>0.3372658678963648</v>
       </c>
       <c r="G36">
-        <v>0.99999999987233</v>
+        <v>0.662329216992356</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1233,22 +1233,22 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.0005119968960798466</v>
+        <v>8.652348976437912e-12</v>
       </c>
       <c r="C37">
-        <v>0.07842054196632214</v>
+        <v>5.274978961600823e-11</v>
       </c>
       <c r="D37">
-        <v>0.9210674611375981</v>
+        <v>0.9999999999385977</v>
       </c>
       <c r="E37">
-        <v>8.652348976437912e-12</v>
+        <v>0.05260973125164169</v>
       </c>
       <c r="F37">
-        <v>5.274978961600823e-11</v>
+        <v>0.4946539217456348</v>
       </c>
       <c r="G37">
-        <v>0.9999999999385977</v>
+        <v>0.4527363470027235</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1256,22 +1256,22 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.4554253770921691</v>
+        <v>5.494617295973268e-11</v>
       </c>
       <c r="C38">
-        <v>0.3569676111436907</v>
+        <v>3.095326566161593e-10</v>
       </c>
       <c r="D38">
-        <v>0.1876070117641401</v>
+        <v>0.9999999996355211</v>
       </c>
       <c r="E38">
-        <v>5.494617295973268e-11</v>
+        <v>0.2841785536974733</v>
       </c>
       <c r="F38">
-        <v>3.095326566161593e-10</v>
+        <v>0.4132317715550795</v>
       </c>
       <c r="G38">
-        <v>0.9999999996355211</v>
+        <v>0.3025896747474472</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1279,22 +1279,22 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.2129903839739449</v>
+        <v>9.748405575639663e-12</v>
       </c>
       <c r="C39">
-        <v>0.4286406010793819</v>
+        <v>1.891540701251483e-10</v>
       </c>
       <c r="D39">
-        <v>0.3583690149466732</v>
+        <v>0.9999999998010975</v>
       </c>
       <c r="E39">
-        <v>9.748405575639663e-12</v>
+        <v>0.001842393048798809</v>
       </c>
       <c r="F39">
-        <v>1.891540701251483e-10</v>
+        <v>0.4748780287011253</v>
       </c>
       <c r="G39">
-        <v>0.9999999998010975</v>
+        <v>0.5232795782500759</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1302,22 +1302,22 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.392833543112702</v>
+        <v>1.887119232898542e-11</v>
       </c>
       <c r="C40">
-        <v>0.379395500391059</v>
+        <v>1.487582722657765e-09</v>
       </c>
       <c r="D40">
-        <v>0.227770956496239</v>
+        <v>0.9999999984935461</v>
       </c>
       <c r="E40">
-        <v>1.887119232898542e-11</v>
+        <v>0.003572994788591107</v>
       </c>
       <c r="F40">
-        <v>1.487582722657765e-09</v>
+        <v>0.4369416230498961</v>
       </c>
       <c r="G40">
-        <v>0.9999999984935461</v>
+        <v>0.5594853821615128</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1325,22 +1325,22 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.0003283273602888184</v>
+        <v>2.102678417407208e-12</v>
       </c>
       <c r="C41">
-        <v>0.06664396658285679</v>
+        <v>9.509123222463177e-11</v>
       </c>
       <c r="D41">
-        <v>0.9330277060568544</v>
+        <v>0.9999999999028059</v>
       </c>
       <c r="E41">
-        <v>2.102678417407208e-12</v>
+        <v>0.001094466023527555</v>
       </c>
       <c r="F41">
-        <v>9.509123222463177e-11</v>
+        <v>0.406275613366208</v>
       </c>
       <c r="G41">
-        <v>0.9999999999028059</v>
+        <v>0.5926299206102645</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1348,22 +1348,22 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.0004723508874942133</v>
+        <v>1.21508239981859e-11</v>
       </c>
       <c r="C42">
-        <v>0.3085432404606271</v>
+        <v>9.174591765377383e-10</v>
       </c>
       <c r="D42">
-        <v>0.6909844086518787</v>
+        <v>0.9999999990703899</v>
       </c>
       <c r="E42">
-        <v>1.21508239981859e-11</v>
+        <v>0.4026121938806355</v>
       </c>
       <c r="F42">
-        <v>9.174591765377383e-10</v>
+        <v>0.3828260914599079</v>
       </c>
       <c r="G42">
-        <v>0.9999999990703899</v>
+        <v>0.2145617146594566</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1371,22 +1371,22 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.3468195030254599</v>
+        <v>1.434302291135992e-10</v>
       </c>
       <c r="C43">
-        <v>0.4030745508187641</v>
+        <v>1.54505638827892e-09</v>
       </c>
       <c r="D43">
-        <v>0.2501059461557759</v>
+        <v>0.9999999983115136</v>
       </c>
       <c r="E43">
-        <v>1.434302291135992e-10</v>
+        <v>0.004303889962096278</v>
       </c>
       <c r="F43">
-        <v>1.54505638827892e-09</v>
+        <v>0.4599389722130713</v>
       </c>
       <c r="G43">
-        <v>0.9999999983115136</v>
+        <v>0.5357571378248324</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1394,22 +1394,22 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.0007715762957890555</v>
+        <v>1.08307498648791e-11</v>
       </c>
       <c r="C44">
-        <v>0.3615582410463286</v>
+        <v>2.522032148057718e-10</v>
       </c>
       <c r="D44">
-        <v>0.6376701826578823</v>
+        <v>0.999999999736966</v>
       </c>
       <c r="E44">
-        <v>1.08307498648791e-11</v>
+        <v>0.001443717988301413</v>
       </c>
       <c r="F44">
-        <v>2.522032148057718e-10</v>
+        <v>0.429226568299909</v>
       </c>
       <c r="G44">
-        <v>0.999999999736966</v>
+        <v>0.5693297137117894</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1417,22 +1417,22 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.0005090422669999329</v>
+        <v>2.362695200544855e-10</v>
       </c>
       <c r="C45">
-        <v>0.3199982030378682</v>
+        <v>2.298048330473372e-09</v>
       </c>
       <c r="D45">
-        <v>0.6794927546951319</v>
+        <v>0.9999999974656822</v>
       </c>
       <c r="E45">
-        <v>2.362695200544855e-10</v>
+        <v>0.002041121570268816</v>
       </c>
       <c r="F45">
-        <v>2.298048330473372e-09</v>
+        <v>0.4230009274346166</v>
       </c>
       <c r="G45">
-        <v>0.9999999974656822</v>
+        <v>0.5749579509951145</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1440,22 +1440,22 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.3613667919965838</v>
+        <v>3.18072472033169e-12</v>
       </c>
       <c r="C46">
-        <v>0.4113228054830893</v>
+        <v>3.54117380222375e-10</v>
       </c>
       <c r="D46">
-        <v>0.2273104025203269</v>
+        <v>0.9999999996427018</v>
       </c>
       <c r="E46">
-        <v>3.18072472033169e-12</v>
+        <v>0.09302003817228618</v>
       </c>
       <c r="F46">
-        <v>3.54117380222375e-10</v>
+        <v>0.4681865583187788</v>
       </c>
       <c r="G46">
-        <v>0.9999999996427018</v>
+        <v>0.438793403508935</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1463,22 +1463,22 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.3006525792557565</v>
+        <v>1.691840755291326e-12</v>
       </c>
       <c r="C47">
-        <v>0.4078778284617774</v>
+        <v>1.000451023486739e-11</v>
       </c>
       <c r="D47">
-        <v>0.2914695922824661</v>
+        <v>0.9999999999883037</v>
       </c>
       <c r="E47">
-        <v>1.691840755291326e-12</v>
+        <v>0.3905581468371724</v>
       </c>
       <c r="F47">
-        <v>1.000451023486739e-11</v>
+        <v>0.3861273274918275</v>
       </c>
       <c r="G47">
-        <v>0.9999999999883037</v>
+        <v>0.2233145256710001</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1486,22 +1486,22 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.0004216750583130861</v>
+        <v>1.423542802115643e-10</v>
       </c>
       <c r="C48">
-        <v>0.1194312360357052</v>
+        <v>4.880093699561382e-09</v>
       </c>
       <c r="D48">
-        <v>0.8801470889059818</v>
+        <v>0.999999994977552</v>
       </c>
       <c r="E48">
-        <v>1.423542802115643e-10</v>
+        <v>0.01206515826773322</v>
       </c>
       <c r="F48">
-        <v>4.880093699561382e-09</v>
+        <v>0.5166080659860722</v>
       </c>
       <c r="G48">
-        <v>0.999999994977552</v>
+        <v>0.4713267757461946</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1509,22 +1509,22 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.0003451682836214058</v>
+        <v>7.989882460479724e-12</v>
       </c>
       <c r="C49">
-        <v>0.1094394042903224</v>
+        <v>2.244977554774553e-09</v>
       </c>
       <c r="D49">
-        <v>0.8902154274260562</v>
+        <v>0.9999999977470329</v>
       </c>
       <c r="E49">
-        <v>7.989882460479724e-12</v>
+        <v>0.4417698703744606</v>
       </c>
       <c r="F49">
-        <v>2.244977554774553e-09</v>
+        <v>0.3608921888909827</v>
       </c>
       <c r="G49">
-        <v>0.9999999977470329</v>
+        <v>0.1973379407345566</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1532,22 +1532,22 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.2005318199099557</v>
+        <v>1.258587351297388e-11</v>
       </c>
       <c r="C50">
-        <v>0.4439405049461509</v>
+        <v>2.648734603577626e-09</v>
       </c>
       <c r="D50">
-        <v>0.3555276751438935</v>
+        <v>0.9999999973386795</v>
       </c>
       <c r="E50">
-        <v>1.258587351297388e-11</v>
+        <v>0.2846303877034743</v>
       </c>
       <c r="F50">
-        <v>2.648734603577626e-09</v>
+        <v>0.418636005661968</v>
       </c>
       <c r="G50">
-        <v>0.9999999973386795</v>
+        <v>0.2967336066345576</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1555,22 +1555,22 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.06449006867477823</v>
+        <v>1.741332139206241e-11</v>
       </c>
       <c r="C51">
-        <v>0.4629352141749125</v>
+        <v>3.137431017530576e-09</v>
       </c>
       <c r="D51">
-        <v>0.4725747171503093</v>
+        <v>0.9999999968451559</v>
       </c>
       <c r="E51">
-        <v>1.741332139206241e-11</v>
+        <v>0.005004080440118005</v>
       </c>
       <c r="F51">
-        <v>3.137431017530576e-09</v>
+        <v>0.3131416094531662</v>
       </c>
       <c r="G51">
-        <v>0.9999999968451559</v>
+        <v>0.6818543101067158</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1578,22 +1578,22 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.03451279651309645</v>
+        <v>2.286479194793228e-11</v>
       </c>
       <c r="C52">
-        <v>0.4871282638888878</v>
+        <v>3.738917487529819e-09</v>
       </c>
       <c r="D52">
-        <v>0.4783589395980158</v>
+        <v>0.9999999962382169</v>
       </c>
       <c r="E52">
-        <v>2.286479194793228e-11</v>
+        <v>0.3647326417987429</v>
       </c>
       <c r="F52">
-        <v>3.738917487529819e-09</v>
+        <v>0.384594577963795</v>
       </c>
       <c r="G52">
-        <v>0.9999999962382169</v>
+        <v>0.2506727802374621</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1601,22 +1601,22 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.0009624598314034153</v>
+        <v>2.9419651231492e-11</v>
       </c>
       <c r="C53">
-        <v>0.1541276594689761</v>
+        <v>4.489854501416779e-09</v>
       </c>
       <c r="D53">
-        <v>0.8449098806996206</v>
+        <v>0.999999995480725</v>
       </c>
       <c r="E53">
-        <v>2.9419651231492e-11</v>
+        <v>0.00233126444910211</v>
       </c>
       <c r="F53">
-        <v>4.489854501416779e-09</v>
+        <v>0.322959105541274</v>
       </c>
       <c r="G53">
-        <v>0.999999995480725</v>
+        <v>0.6747096300096239</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1624,22 +1624,22 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.0005237374954314064</v>
+        <v>3.765059788466214e-11</v>
       </c>
       <c r="C54">
-        <v>0.2597153203567408</v>
+        <v>5.438252819231883e-09</v>
       </c>
       <c r="D54">
-        <v>0.7397609421478278</v>
+        <v>0.9999999945240967</v>
       </c>
       <c r="E54">
-        <v>3.765059788466214e-11</v>
+        <v>0.244205852425911</v>
       </c>
       <c r="F54">
-        <v>5.438252819231883e-09</v>
+        <v>0.4393807486918525</v>
       </c>
       <c r="G54">
-        <v>0.9999999945240967</v>
+        <v>0.3164133988822365</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1647,22 +1647,22 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.0007885839706593458</v>
+        <v>4.822080599506005e-11</v>
       </c>
       <c r="C55">
-        <v>0.3533282814633001</v>
+        <v>6.646563148657349e-09</v>
       </c>
       <c r="D55">
-        <v>0.6458831345660405</v>
+        <v>0.9999999933052155</v>
       </c>
       <c r="E55">
-        <v>4.822080599506005e-11</v>
+        <v>0.18311198124987</v>
       </c>
       <c r="F55">
-        <v>6.646563148657349e-09</v>
+        <v>0.4527188815802632</v>
       </c>
       <c r="G55">
-        <v>0.9999999933052155</v>
+        <v>0.3641691371698667</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1670,22 +1670,22 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.0007865294683108317</v>
+        <v>6.183841066767084e-11</v>
       </c>
       <c r="C56">
-        <v>0.03879554437522225</v>
+        <v>8.195273357549851e-09</v>
       </c>
       <c r="D56">
-        <v>0.9604179261564668</v>
+        <v>0.9999999917428868</v>
       </c>
       <c r="E56">
-        <v>6.183841066767084e-11</v>
+        <v>0.06460741449607428</v>
       </c>
       <c r="F56">
-        <v>8.195273357549851e-09</v>
+        <v>0.4831704970382028</v>
       </c>
       <c r="G56">
-        <v>0.9999999917428868</v>
+        <v>0.4522220884657229</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1693,22 +1693,22 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.1532865612779434</v>
+        <v>7.901182188948603e-11</v>
       </c>
       <c r="C57">
-        <v>0.4303201932741428</v>
+        <v>1.018682194676755e-08</v>
       </c>
       <c r="D57">
-        <v>0.4163932454479137</v>
+        <v>0.9999999897341628</v>
       </c>
       <c r="E57">
-        <v>7.901182188948603e-11</v>
+        <v>0.00242645829548196</v>
       </c>
       <c r="F57">
-        <v>1.018682194676755e-08</v>
+        <v>0.28822868852212</v>
       </c>
       <c r="G57">
-        <v>0.9999999897341628</v>
+        <v>0.709344853182398</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1716,22 +1716,22 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.0007077042072016164</v>
+        <v>5.44527128354331e-11</v>
       </c>
       <c r="C58">
-        <v>0.3779110644113641</v>
+        <v>1.887425412745806e-08</v>
       </c>
       <c r="D58">
-        <v>0.6213812313814344</v>
+        <v>0.9999999810712935</v>
       </c>
       <c r="E58">
-        <v>5.44527128354331e-11</v>
+        <v>0.0003642740858312281</v>
       </c>
       <c r="F58">
-        <v>1.887425412745806e-08</v>
+        <v>0.0182512593141948</v>
       </c>
       <c r="G58">
-        <v>0.9999999810712935</v>
+        <v>0.981384466599974</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1739,22 +1739,22 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.07019439734121684</v>
+        <v>1.625669926387304e-13</v>
       </c>
       <c r="C59">
-        <v>0.4925977257947811</v>
+        <v>4.801307882636409e-11</v>
       </c>
       <c r="D59">
-        <v>0.437207876864002</v>
+        <v>0.9999999999518271</v>
       </c>
       <c r="E59">
-        <v>1.625669926387304e-13</v>
+        <v>0.1347626898396098</v>
       </c>
       <c r="F59">
-        <v>4.801307882636409e-11</v>
+        <v>0.4663075238161369</v>
       </c>
       <c r="G59">
-        <v>0.9999999999518271</v>
+        <v>0.3989297863442532</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1762,22 +1762,22 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.3620743174860753</v>
+        <v>4.797692706790844e-13</v>
       </c>
       <c r="C60">
-        <v>0.3902723726315558</v>
+        <v>1.463915702242434e-10</v>
       </c>
       <c r="D60">
-        <v>0.247653309882369</v>
+        <v>0.9999999998531651</v>
       </c>
       <c r="E60">
-        <v>4.797692706790844e-13</v>
+        <v>0.4831965308981075</v>
       </c>
       <c r="F60">
-        <v>1.463915702242434e-10</v>
+        <v>0.3577628199350725</v>
       </c>
       <c r="G60">
-        <v>0.9999999998531651</v>
+        <v>0.1590406491668199</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1785,22 +1785,22 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.1152589940978544</v>
+        <v>1.380402979613312e-12</v>
       </c>
       <c r="C61">
-        <v>0.4728532966741569</v>
+        <v>3.887677874166967e-10</v>
       </c>
       <c r="D61">
-        <v>0.4118877092279887</v>
+        <v>0.999999999609841</v>
       </c>
       <c r="E61">
-        <v>1.380402979613312e-12</v>
+        <v>0.349997834901725</v>
       </c>
       <c r="F61">
-        <v>3.887677874166967e-10</v>
+        <v>0.3901246710088302</v>
       </c>
       <c r="G61">
-        <v>0.999999999609841</v>
+        <v>0.2598774940894447</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1808,22 +1808,22 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.05772199737574559</v>
+        <v>3.764523447568303e-12</v>
       </c>
       <c r="C62">
-        <v>0.4895552347030147</v>
+        <v>1.022017618440781e-09</v>
       </c>
       <c r="D62">
-        <v>0.4527227679212397</v>
+        <v>0.9999999989742259</v>
       </c>
       <c r="E62">
-        <v>3.764523447568303e-12</v>
+        <v>0.3775609973223554</v>
       </c>
       <c r="F62">
-        <v>1.022017618440781e-09</v>
+        <v>0.3858534508565689</v>
       </c>
       <c r="G62">
-        <v>0.9999999989742259</v>
+        <v>0.2365855518210755</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1831,22 +1831,22 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.0003100066368536853</v>
+        <v>9.273566894167057e-12</v>
       </c>
       <c r="C63">
-        <v>0.2725217278163481</v>
+        <v>2.605122202959611e-09</v>
       </c>
       <c r="D63">
-        <v>0.7271682655467981</v>
+        <v>0.9999999973856014</v>
       </c>
       <c r="E63">
-        <v>9.273566894167057e-12</v>
+        <v>0.09811849523169697</v>
       </c>
       <c r="F63">
-        <v>2.605122202959611e-09</v>
+        <v>0.4674684741732704</v>
       </c>
       <c r="G63">
-        <v>0.9999999973856014</v>
+        <v>0.4344130305950327</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1854,22 +1854,22 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.002160299024919764</v>
+        <v>4.045506972602687e-11</v>
       </c>
       <c r="C64">
-        <v>0.008362118335171986</v>
+        <v>4.812140470396797e-08</v>
       </c>
       <c r="D64">
-        <v>0.9894775826399083</v>
+        <v>0.9999999518381899</v>
       </c>
       <c r="E64">
-        <v>4.045506972602687e-11</v>
+        <v>0.002249283113656343</v>
       </c>
       <c r="F64">
-        <v>4.812140470396797e-08</v>
+        <v>0.2360127722076856</v>
       </c>
       <c r="G64">
-        <v>0.9999999518381899</v>
+        <v>0.7617379446786582</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1877,22 +1877,22 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.03131478378612341</v>
+        <v>9.613514506154536e-13</v>
       </c>
       <c r="C65">
-        <v>0.4766186797128434</v>
+        <v>9.345646784658549e-10</v>
       </c>
       <c r="D65">
-        <v>0.4920665365010331</v>
+        <v>0.9999999990645956</v>
       </c>
       <c r="E65">
-        <v>9.613514506154536e-13</v>
+        <v>0.2562575118136494</v>
       </c>
       <c r="F65">
-        <v>9.345646784658549e-10</v>
+        <v>0.432614104149271</v>
       </c>
       <c r="G65">
-        <v>0.9999999990645956</v>
+        <v>0.3111283840370796</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1900,22 +1900,22 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.0007159500011313727</v>
+        <v>6.621670301805551e-14</v>
       </c>
       <c r="C66">
-        <v>0.3127949336547003</v>
+        <v>1.85721459705441e-09</v>
       </c>
       <c r="D66">
-        <v>0.6864891163441684</v>
+        <v>0.9999999981410505</v>
       </c>
       <c r="E66">
-        <v>6.621670301805551e-14</v>
+        <v>0.2968390832484474</v>
       </c>
       <c r="F66">
-        <v>1.85721459705441e-09</v>
+        <v>0.4206522806410567</v>
       </c>
       <c r="G66">
-        <v>0.9999999981410505</v>
+        <v>0.2825086361104959</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1923,22 +1923,22 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.0004744798243342789</v>
+        <v>1.527887351190665e-12</v>
       </c>
       <c r="C67">
-        <v>0.07069781390889499</v>
+        <v>0.03318137021045683</v>
       </c>
       <c r="D67">
-        <v>0.9288277062667708</v>
+        <v>0.9668186297879356</v>
       </c>
       <c r="E67">
-        <v>1.527887351190665e-12</v>
+        <v>0.1131501477281243</v>
       </c>
       <c r="F67">
-        <v>0.03318137021045683</v>
+        <v>0.4721297935295753</v>
       </c>
       <c r="G67">
-        <v>0.9668186297879356</v>
+        <v>0.4147200587423005</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1946,22 +1946,22 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.0004556527978078155</v>
+        <v>4.967799234826869e-11</v>
       </c>
       <c r="C68">
-        <v>0.2238833782948502</v>
+        <v>0.06821684441529997</v>
       </c>
       <c r="D68">
-        <v>0.7756609689073419</v>
+        <v>0.9317831555350092</v>
       </c>
       <c r="E68">
-        <v>4.967799234826869e-11</v>
+        <v>0.006215898432927552</v>
       </c>
       <c r="F68">
-        <v>0.06821684441529997</v>
+        <v>0.515348420062588</v>
       </c>
       <c r="G68">
-        <v>0.9317831555350092</v>
+        <v>0.4784356815044845</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1969,22 +1969,22 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.3135543473683439</v>
+        <v>5.484171750630192e-12</v>
       </c>
       <c r="C69">
-        <v>0.3994459000541117</v>
+        <v>0.1009024086437532</v>
       </c>
       <c r="D69">
-        <v>0.2869997525775445</v>
+        <v>0.8990975913507626</v>
       </c>
       <c r="E69">
-        <v>5.484171750630192e-12</v>
+        <v>0.1060366225216568</v>
       </c>
       <c r="F69">
-        <v>0.1009024086437532</v>
+        <v>0.460231437713068</v>
       </c>
       <c r="G69">
-        <v>0.8990975913507626</v>
+        <v>0.4337319397652752</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -1992,22 +1992,22 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.0005520562234723181</v>
+        <v>5.264710349101375e-12</v>
       </c>
       <c r="C70">
-        <v>0.1399342865232658</v>
+        <v>0.1313958118120482</v>
       </c>
       <c r="D70">
-        <v>0.8595136572532619</v>
+        <v>0.8686041881826861</v>
       </c>
       <c r="E70">
-        <v>5.264710349101375e-12</v>
+        <v>0.3514177766162659</v>
       </c>
       <c r="F70">
-        <v>0.1313958118120482</v>
+        <v>0.4017047855311033</v>
       </c>
       <c r="G70">
-        <v>0.8686041881826861</v>
+        <v>0.2468774378526308</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2015,22 +2015,22 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.001542453650911463</v>
+        <v>8.942369108038513e-12</v>
       </c>
       <c r="C71">
-        <v>0.3850233079991233</v>
+        <v>0.1598440353056536</v>
       </c>
       <c r="D71">
-        <v>0.6134342383499654</v>
+        <v>0.8401559646853921</v>
       </c>
       <c r="E71">
-        <v>8.942369108038513e-12</v>
+        <v>0.0001605731671703368</v>
       </c>
       <c r="F71">
-        <v>0.1598440353056536</v>
+        <v>0.2897165776411197</v>
       </c>
       <c r="G71">
-        <v>0.8401559646853921</v>
+        <v>0.71012284919171</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2038,22 +2038,22 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.0006519164704158477</v>
+        <v>9.046346551341089e-12</v>
       </c>
       <c r="C72">
-        <v>0.2856793387090881</v>
+        <v>0.1863842474939122</v>
       </c>
       <c r="D72">
-        <v>0.713668744820496</v>
+        <v>0.8136157524970441</v>
       </c>
       <c r="E72">
-        <v>9.046346551341089e-12</v>
+        <v>0.0004184515629365567</v>
       </c>
       <c r="F72">
-        <v>0.1863842474939122</v>
+        <v>0.163513782095453</v>
       </c>
       <c r="G72">
-        <v>0.8136157524970441</v>
+        <v>0.8360677663416105</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2061,22 +2061,22 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.3011318734054477</v>
+        <v>3.095769505755237e-13</v>
       </c>
       <c r="C73">
-        <v>0.419785710802492</v>
+        <v>0.2111444176703841</v>
       </c>
       <c r="D73">
-        <v>0.2790824157920603</v>
+        <v>0.7888555823293175</v>
       </c>
       <c r="E73">
-        <v>3.095769505755237e-13</v>
+        <v>0.0004241580644324172</v>
       </c>
       <c r="F73">
-        <v>0.2111444176703841</v>
+        <v>0.4625811605921767</v>
       </c>
       <c r="G73">
-        <v>0.7888555823293175</v>
+        <v>0.5369946813433909</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2084,22 +2084,22 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.0008007974083169312</v>
+        <v>2.536590822386975e-10</v>
       </c>
       <c r="C74">
-        <v>0.4393708384488916</v>
+        <v>0.2342439398441115</v>
       </c>
       <c r="D74">
-        <v>0.5598283641427915</v>
+        <v>0.7657560599022428</v>
       </c>
       <c r="E74">
-        <v>2.536590822386975e-10</v>
+        <v>0.3433874414786736</v>
       </c>
       <c r="F74">
-        <v>0.2342439398441115</v>
+        <v>0.397878008967944</v>
       </c>
       <c r="G74">
-        <v>0.7657560599022428</v>
+        <v>0.2587345495533824</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2107,22 +2107,22 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.0005003794377996489</v>
+        <v>1.30466195118286e-10</v>
       </c>
       <c r="C75">
-        <v>0.248609902165065</v>
+        <v>0.2557941750180441</v>
       </c>
       <c r="D75">
-        <v>0.7508897183971355</v>
+        <v>0.7442058248514898</v>
       </c>
       <c r="E75">
-        <v>1.30466195118286e-10</v>
+        <v>0.2334617161180039</v>
       </c>
       <c r="F75">
-        <v>0.2557941750180441</v>
+        <v>0.4418041878715021</v>
       </c>
       <c r="G75">
-        <v>0.7442058248514898</v>
+        <v>0.3247340960104941</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2130,22 +2130,22 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.002669958198076408</v>
+        <v>8.087643688553812e-11</v>
       </c>
       <c r="C76">
-        <v>0.3670390304267905</v>
+        <v>0.2758990501321309</v>
       </c>
       <c r="D76">
-        <v>0.6302910113751331</v>
+        <v>0.7241009497869929</v>
       </c>
       <c r="E76">
-        <v>8.087643688553812e-11</v>
+        <v>0.005901563240922177</v>
       </c>
       <c r="F76">
-        <v>0.2758990501321309</v>
+        <v>0.1764364930197914</v>
       </c>
       <c r="G76">
-        <v>0.7241009497869929</v>
+        <v>0.8176619437392864</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2153,22 +2153,22 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.0002893324766642261</v>
+        <v>1.47869615548128e-09</v>
       </c>
       <c r="C77">
-        <v>0.1678990449309649</v>
+        <v>0.2946554993062919</v>
       </c>
       <c r="D77">
-        <v>0.8318116225923708</v>
+        <v>0.7053444992150124</v>
       </c>
       <c r="E77">
-        <v>1.47869615548128e-09</v>
+        <v>0.1694162298874549</v>
       </c>
       <c r="F77">
-        <v>0.2946554993062919</v>
+        <v>0.469190722027579</v>
       </c>
       <c r="G77">
-        <v>0.7053444992150124</v>
+        <v>0.3613930480849661</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2176,22 +2176,22 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.0005567020881485826</v>
+        <v>8.178742343340676e-12</v>
       </c>
       <c r="C78">
-        <v>0.102049823381381</v>
+        <v>0.3121539611067178</v>
       </c>
       <c r="D78">
-        <v>0.8973934745304705</v>
+        <v>0.6878460388851054</v>
       </c>
       <c r="E78">
-        <v>8.178742343340676e-12</v>
+        <v>0.02535082195528386</v>
       </c>
       <c r="F78">
-        <v>0.3121539611067178</v>
+        <v>0.4907787439660757</v>
       </c>
       <c r="G78">
-        <v>0.6878460388851054</v>
+        <v>0.4838704340786404</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2199,22 +2199,22 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.2743293065305544</v>
+        <v>1.345977891260897e-12</v>
       </c>
       <c r="C79">
-        <v>0.4212363414323251</v>
+        <v>0.3284788080346958</v>
       </c>
       <c r="D79">
-        <v>0.3044343520371204</v>
+        <v>0.6715211919639581</v>
       </c>
       <c r="E79">
-        <v>1.345977891260897e-12</v>
+        <v>0.1299221177014831</v>
       </c>
       <c r="F79">
-        <v>0.3284788080346958</v>
+        <v>0.462288369505535</v>
       </c>
       <c r="G79">
-        <v>0.6715211919639581</v>
+        <v>0.4077895127929819</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2222,22 +2222,22 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.0004218031262953938</v>
+        <v>5.924143075779448e-12</v>
       </c>
       <c r="C80">
-        <v>0.1370596182294665</v>
+        <v>0.3437087540909378</v>
       </c>
       <c r="D80">
-        <v>0.8625185786442381</v>
+        <v>0.6562912459031305</v>
       </c>
       <c r="E80">
-        <v>5.924143075779448e-12</v>
+        <v>0.003859567110188204</v>
       </c>
       <c r="F80">
-        <v>0.3437087540909378</v>
+        <v>0.2721167088067024</v>
       </c>
       <c r="G80">
-        <v>0.6562912459031305</v>
+        <v>0.7240237240831093</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2245,22 +2245,22 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.0004536384578892385</v>
+        <v>7.032005606346409e-12</v>
       </c>
       <c r="C81">
-        <v>0.02726883532777686</v>
+        <v>0.3579172337674363</v>
       </c>
       <c r="D81">
-        <v>0.9722775262143339</v>
+        <v>0.6420827662255293</v>
       </c>
       <c r="E81">
-        <v>7.032005606346409e-12</v>
+        <v>0.2489763255147877</v>
       </c>
       <c r="F81">
-        <v>0.3579172337674363</v>
+        <v>0.4209565142238445</v>
       </c>
       <c r="G81">
-        <v>0.6420827662255293</v>
+        <v>0.3300671602613678</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2268,22 +2268,22 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.0005017403469462836</v>
+        <v>9.074720798608746e-12</v>
       </c>
       <c r="C82">
-        <v>0.06449270167628493</v>
+        <v>0.3711727564325155</v>
       </c>
       <c r="D82">
-        <v>0.9350055579767688</v>
+        <v>0.6288272435584118</v>
       </c>
       <c r="E82">
-        <v>9.074720798608746e-12</v>
+        <v>0.1162024327580259</v>
       </c>
       <c r="F82">
-        <v>0.3711727564325155</v>
+        <v>0.459480124592398</v>
       </c>
       <c r="G82">
-        <v>0.6288272435584118</v>
+        <v>0.424317442649576</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2291,22 +2291,22 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.0007557434746343939</v>
+        <v>1.2376401225826e-10</v>
       </c>
       <c r="C83">
-        <v>0.2914724647028501</v>
+        <v>0.3835392363382685</v>
       </c>
       <c r="D83">
-        <v>0.7077717918225155</v>
+        <v>0.6164607635379675</v>
       </c>
       <c r="E83">
-        <v>1.2376401225826e-10</v>
+        <v>0.001416987072990772</v>
       </c>
       <c r="F83">
-        <v>0.3835392363382685</v>
+        <v>0.4038660626273736</v>
       </c>
       <c r="G83">
-        <v>0.6164607635379675</v>
+        <v>0.5947169502996356</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2314,22 +2314,22 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.3835106019761159</v>
+        <v>1.913187924050333e-10</v>
       </c>
       <c r="C84">
-        <v>0.3822563531676762</v>
+        <v>0.3950763016396868</v>
       </c>
       <c r="D84">
-        <v>0.2342330448562079</v>
+        <v>0.6049236981689944</v>
       </c>
       <c r="E84">
-        <v>1.913187924050333e-10</v>
+        <v>0.3379039518256646</v>
       </c>
       <c r="F84">
-        <v>0.3950763016396868</v>
+        <v>0.4032996592952224</v>
       </c>
       <c r="G84">
-        <v>0.6049236981689944</v>
+        <v>0.2587963888791129</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2337,22 +2337,22 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.0003768420609106227</v>
+        <v>2.979458930318451e-10</v>
       </c>
       <c r="C85">
-        <v>0.1996194408358493</v>
+        <v>0.405839580596677</v>
       </c>
       <c r="D85">
-        <v>0.80000371710324</v>
+        <v>0.594160419105377</v>
       </c>
       <c r="E85">
-        <v>2.979458930318451e-10</v>
+        <v>0.001031330861660831</v>
       </c>
       <c r="F85">
-        <v>0.405839580596677</v>
+        <v>0.3749658111400441</v>
       </c>
       <c r="G85">
-        <v>0.594160419105377</v>
+        <v>0.6240028579982951</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2360,22 +2360,22 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.001268492580202163</v>
+        <v>1.171620899006019e-10</v>
       </c>
       <c r="C86">
-        <v>0.4102937692283112</v>
+        <v>0.415880970820534</v>
       </c>
       <c r="D86">
-        <v>0.5884377381914867</v>
+        <v>0.5841190290623041</v>
       </c>
       <c r="E86">
-        <v>1.171620899006019e-10</v>
+        <v>0.1985371010117713</v>
       </c>
       <c r="F86">
-        <v>0.415880970820534</v>
+        <v>0.4448565358363436</v>
       </c>
       <c r="G86">
-        <v>0.5841190290623041</v>
+        <v>0.3566063631518852</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2383,22 +2383,22 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.0004745037615612803</v>
+        <v>4.226678377219901e-11</v>
       </c>
       <c r="C87">
-        <v>0.06081016697487789</v>
+        <v>0.4252488890086719</v>
       </c>
       <c r="D87">
-        <v>0.9387153292635608</v>
+        <v>0.5747511109490613</v>
       </c>
       <c r="E87">
-        <v>4.226678377219901e-11</v>
+        <v>0.003442851546479288</v>
       </c>
       <c r="F87">
-        <v>0.4252488890086719</v>
+        <v>0.3811519765956273</v>
       </c>
       <c r="G87">
-        <v>0.5747511109490613</v>
+        <v>0.6154051718578933</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2406,22 +2406,22 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.3425308908053541</v>
+        <v>4.468668215336897e-11</v>
       </c>
       <c r="C88">
-        <v>0.3872565530133956</v>
+        <v>0.4339885046664294</v>
       </c>
       <c r="D88">
-        <v>0.2702125561812505</v>
+        <v>0.5660114952888838</v>
       </c>
       <c r="E88">
-        <v>4.468668215336897e-11</v>
+        <v>0.2917928097761746</v>
       </c>
       <c r="F88">
-        <v>0.4339885046664294</v>
+        <v>0.4166929901292641</v>
       </c>
       <c r="G88">
-        <v>0.5660114952888838</v>
+        <v>0.2915142000945612</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2429,22 +2429,22 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.009203860683341947</v>
+        <v>1.638447413150628e-09</v>
       </c>
       <c r="C89">
-        <v>0.4974675635039023</v>
+        <v>0.4421419571736279</v>
       </c>
       <c r="D89">
-        <v>0.4933285758127559</v>
+        <v>0.5578580411879231</v>
       </c>
       <c r="E89">
-        <v>1.638447413150628e-09</v>
+        <v>0.0290758005736524</v>
       </c>
       <c r="F89">
-        <v>0.4421419571736279</v>
+        <v>0.4956410256214994</v>
       </c>
       <c r="G89">
-        <v>0.5578580411879231</v>
+        <v>0.4752831738048482</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2452,22 +2452,22 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.1592511365869902</v>
+        <v>2.443970101039823e-09</v>
       </c>
       <c r="C90">
-        <v>0.4506530931327924</v>
+        <v>0.4497485611578524</v>
       </c>
       <c r="D90">
-        <v>0.3900957702802174</v>
+        <v>0.5502514363981766</v>
       </c>
       <c r="E90">
-        <v>2.443970101039823e-09</v>
+        <v>0.003184689413728859</v>
       </c>
       <c r="F90">
-        <v>0.4497485611578524</v>
+        <v>0.4166013197432744</v>
       </c>
       <c r="G90">
-        <v>0.5502514363981766</v>
+        <v>0.5802139908429966</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2475,22 +2475,22 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.3076253996178702</v>
+        <v>3.482721300559423e-09</v>
       </c>
       <c r="C91">
-        <v>0.4382606584570167</v>
+        <v>0.4568449931457018</v>
       </c>
       <c r="D91">
-        <v>0.2541139419251132</v>
+        <v>0.543155003371577</v>
       </c>
       <c r="E91">
-        <v>3.482721300559423e-09</v>
+        <v>0.1641311376975322</v>
       </c>
       <c r="F91">
-        <v>0.4568449931457018</v>
+        <v>0.4567747240725391</v>
       </c>
       <c r="G91">
-        <v>0.543155003371577</v>
+        <v>0.3790941382299287</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2498,22 +2498,22 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.0005619018640454536</v>
+        <v>3.650520439102029e-09</v>
       </c>
       <c r="C92">
-        <v>0.1267501799605926</v>
+        <v>0.4634654706427845</v>
       </c>
       <c r="D92">
-        <v>0.872687918175362</v>
+        <v>0.536534525706696</v>
       </c>
       <c r="E92">
-        <v>3.650520439102029e-09</v>
+        <v>0.07387248508485526</v>
       </c>
       <c r="F92">
-        <v>0.4634654706427845</v>
+        <v>0.4925589330329896</v>
       </c>
       <c r="G92">
-        <v>0.536534525706696</v>
+        <v>0.4335685818821552</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2521,22 +2521,22 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.006573621506074285</v>
+        <v>6.693472684584215e-09</v>
       </c>
       <c r="C93">
-        <v>0.4218787111652741</v>
+        <v>0.4696419142089739</v>
       </c>
       <c r="D93">
-        <v>0.5715476673286516</v>
+        <v>0.5303580790975531</v>
       </c>
       <c r="E93">
-        <v>6.693472684584215e-09</v>
+        <v>0.001606606302468312</v>
       </c>
       <c r="F93">
-        <v>0.4696419142089739</v>
+        <v>0.3220341028595548</v>
       </c>
       <c r="G93">
-        <v>0.5303580790975531</v>
+        <v>0.6763592908379769</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2544,22 +2544,22 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.0003338865465378637</v>
+        <v>6.488553843345117e-09</v>
       </c>
       <c r="C94">
-        <v>0.1949035251204861</v>
+        <v>0.4754041075446501</v>
       </c>
       <c r="D94">
-        <v>0.8047625883329761</v>
+        <v>0.5245958859667933</v>
       </c>
       <c r="E94">
-        <v>6.488553843345117e-09</v>
+        <v>0.001849273443243312</v>
       </c>
       <c r="F94">
-        <v>0.4754041075446501</v>
+        <v>0.07781060885999573</v>
       </c>
       <c r="G94">
-        <v>0.5245958859667933</v>
+        <v>0.9203401176967611</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2567,22 +2567,22 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.4064619238134341</v>
+        <v>2.39111119417291e-11</v>
       </c>
       <c r="C95">
-        <v>0.3647069996811736</v>
+        <v>0.4807798353205897</v>
       </c>
       <c r="D95">
-        <v>0.2288310765053922</v>
+        <v>0.5192201646554985</v>
       </c>
       <c r="E95">
-        <v>2.39111119417291e-11</v>
+        <v>0.06324176375269552</v>
       </c>
       <c r="F95">
-        <v>0.4807798353205897</v>
+        <v>0.4811076501235788</v>
       </c>
       <c r="G95">
-        <v>0.5192201646554985</v>
+        <v>0.4556505861237257</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2590,22 +2590,22 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.4245254904863694</v>
+        <v>1.289550967819094e-09</v>
       </c>
       <c r="C96">
-        <v>0.3672665181129931</v>
+        <v>0.485795012246959</v>
       </c>
       <c r="D96">
-        <v>0.2082079914006375</v>
+        <v>0.5142049864634887</v>
       </c>
       <c r="E96">
-        <v>1.289550967819094e-09</v>
+        <v>0.3503546051606937</v>
       </c>
       <c r="F96">
-        <v>0.485795012246959</v>
+        <v>0.3948784295063978</v>
       </c>
       <c r="G96">
-        <v>0.5142049864634887</v>
+        <v>0.2547669653329085</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2613,22 +2613,22 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.001325693727631567</v>
+        <v>9.430176717732205e-11</v>
       </c>
       <c r="C97">
-        <v>0.3317575518916892</v>
+        <v>0.4904738242565381</v>
       </c>
       <c r="D97">
-        <v>0.6669167543806793</v>
+        <v>0.5095261756491561</v>
       </c>
       <c r="E97">
-        <v>9.430176717732205e-11</v>
+        <v>0.005624717950775696</v>
       </c>
       <c r="F97">
-        <v>0.4904738242565381</v>
+        <v>0.4447296056462306</v>
       </c>
       <c r="G97">
-        <v>0.5095261756491561</v>
+        <v>0.5496456764029938</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2636,22 +2636,22 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.0005134897918361446</v>
+        <v>1.488920610387554e-08</v>
       </c>
       <c r="C98">
-        <v>0.2053959559394398</v>
+        <v>0.4948388236586</v>
       </c>
       <c r="D98">
-        <v>0.7940905542687241</v>
+        <v>0.5051611614521978</v>
       </c>
       <c r="E98">
-        <v>1.488920610387554e-08</v>
+        <v>0.0002341801136903533</v>
       </c>
       <c r="F98">
-        <v>0.4948388236586</v>
+        <v>0.3427910488666533</v>
       </c>
       <c r="G98">
-        <v>0.5051611614521978</v>
+        <v>0.6569747710196563</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2659,22 +2659,22 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.0003905890918333246</v>
+        <v>5.191241192068172e-10</v>
       </c>
       <c r="C99">
-        <v>0.02409625295019158</v>
+        <v>0.4989110759427468</v>
       </c>
       <c r="D99">
-        <v>0.9755131579579751</v>
+        <v>0.5010889235381342</v>
       </c>
       <c r="E99">
-        <v>5.191241192068172e-10</v>
+        <v>0.2660275623548983</v>
       </c>
       <c r="F99">
-        <v>0.4989110759427468</v>
+        <v>0.4162098832388109</v>
       </c>
       <c r="G99">
-        <v>0.5010889235381342</v>
+        <v>0.3177625544062908</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2682,22 +2682,22 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.0638453899346654</v>
+        <v>1.294830076357034e-08</v>
       </c>
       <c r="C100">
-        <v>0.4880089870249141</v>
+        <v>0.5027101932364153</v>
       </c>
       <c r="D100">
-        <v>0.4481456230404205</v>
+        <v>0.4972897938152772</v>
       </c>
       <c r="E100">
-        <v>1.294830076357034e-08</v>
+        <v>0.2721220004535078</v>
       </c>
       <c r="F100">
-        <v>0.5027101932364153</v>
+        <v>0.42075282370581</v>
       </c>
       <c r="G100">
-        <v>0.4972897938152772</v>
+        <v>0.3071251758406822</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2705,22 +2705,22 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.05133602420783191</v>
+        <v>1.804327991780557e-08</v>
       </c>
       <c r="C101">
-        <v>0.4784106879044973</v>
+        <v>0.5062545079521785</v>
       </c>
       <c r="D101">
-        <v>0.4702532878876708</v>
+        <v>0.4937454740046</v>
       </c>
       <c r="E101">
-        <v>1.804327991780557e-08</v>
+        <v>0.002382011821997292</v>
       </c>
       <c r="F101">
-        <v>0.5062545079521785</v>
+        <v>0.2414433926467506</v>
       </c>
       <c r="G101">
-        <v>0.4937454740046</v>
+        <v>0.7561745955312522</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2728,22 +2728,22 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.001308579892230278</v>
+        <v>4.730749753511808e-09</v>
       </c>
       <c r="C102">
-        <v>0.3488109876120083</v>
+        <v>0.5095611143588209</v>
       </c>
       <c r="D102">
-        <v>0.6498804324957614</v>
+        <v>0.490438880908073</v>
       </c>
       <c r="E102">
-        <v>4.730749753511808e-09</v>
+        <v>0.2680715741546785</v>
       </c>
       <c r="F102">
-        <v>0.5095611143588209</v>
+        <v>0.4355359237079199</v>
       </c>
       <c r="G102">
-        <v>0.490438880908073</v>
+        <v>0.2963925021374017</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2751,22 +2751,22 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.268858238788554</v>
+        <v>0.03225357468521755</v>
       </c>
       <c r="C103">
-        <v>0.4185419863540175</v>
+        <v>0.4993349451741422</v>
       </c>
       <c r="D103">
-        <v>0.3125997748574285</v>
+        <v>0.4684114801406402</v>
       </c>
       <c r="E103">
-        <v>0.03225357468521755</v>
+        <v>0.0004562123040670198</v>
       </c>
       <c r="F103">
-        <v>0.4993349451741422</v>
+        <v>0.3554770930743677</v>
       </c>
       <c r="G103">
-        <v>0.4684114801406402</v>
+        <v>0.6440666946215653</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2774,22 +2774,22 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.1607817079842773</v>
+        <v>0.06315281793839603</v>
       </c>
       <c r="C104">
-        <v>0.4617361077421585</v>
+        <v>0.4894608074259137</v>
       </c>
       <c r="D104">
-        <v>0.3774821842735642</v>
+        <v>0.4473863746356886</v>
       </c>
       <c r="E104">
-        <v>0.06315281793839603</v>
+        <v>0.06768000350409761</v>
       </c>
       <c r="F104">
-        <v>0.4894608074259137</v>
+        <v>0.4814419539786413</v>
       </c>
       <c r="G104">
-        <v>0.4473863746356886</v>
+        <v>0.4508780425172611</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2797,22 +2797,22 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.356342607702251</v>
+        <v>0.0919796611951136</v>
       </c>
       <c r="C105">
-        <v>0.3742650198366883</v>
+        <v>0.4802489236591254</v>
       </c>
       <c r="D105">
-        <v>0.2693923724610607</v>
+        <v>0.4277714151457629</v>
       </c>
       <c r="E105">
-        <v>0.0919796611951136</v>
+        <v>0.002581626627993563</v>
       </c>
       <c r="F105">
-        <v>0.4802489236591254</v>
+        <v>0.3671966242667346</v>
       </c>
       <c r="G105">
-        <v>0.4277714151457629</v>
+        <v>0.6302217491052718</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2820,22 +2820,22 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.2300553381385399</v>
+        <v>0.1188730998567206</v>
       </c>
       <c r="C106">
-        <v>0.4300803602974264</v>
+        <v>0.4716548771539177</v>
       </c>
       <c r="D106">
-        <v>0.3398643015640339</v>
+        <v>0.4094720229893671</v>
       </c>
       <c r="E106">
-        <v>0.1188730998567206</v>
+        <v>0.01596330381957616</v>
       </c>
       <c r="F106">
-        <v>0.4716548771539177</v>
+        <v>0.5219255831365043</v>
       </c>
       <c r="G106">
-        <v>0.4094720229893671</v>
+        <v>0.4621111130439196</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2843,22 +2843,22 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.0004424941160627086</v>
+        <v>0.1439628062809339</v>
       </c>
       <c r="C107">
-        <v>0.1725445453599268</v>
+        <v>0.4636372299430651</v>
       </c>
       <c r="D107">
-        <v>0.8270129605240104</v>
+        <v>0.3923999637759968</v>
       </c>
       <c r="E107">
-        <v>0.1439628062809339</v>
+        <v>0.07056220745752718</v>
       </c>
       <c r="F107">
-        <v>0.4636372299430651</v>
+        <v>0.4818499435149975</v>
       </c>
       <c r="G107">
-        <v>0.3923999637759968</v>
+        <v>0.4475878490274753</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2866,22 +2866,22 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.0006851274330182734</v>
+        <v>0.1673697584715435</v>
       </c>
       <c r="C108">
-        <v>0.1310759638718781</v>
+        <v>0.4561573221618833</v>
       </c>
       <c r="D108">
-        <v>0.8682389086951037</v>
+        <v>0.3764729193665745</v>
       </c>
       <c r="E108">
-        <v>0.1673697584715435</v>
+        <v>0.1352255482002586</v>
       </c>
       <c r="F108">
-        <v>0.4561573221618833</v>
+        <v>0.4596911750888538</v>
       </c>
       <c r="G108">
-        <v>0.3764729193665745</v>
+        <v>0.4050832767108875</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2889,22 +2889,22 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.0005952355835542241</v>
+        <v>0.1892068117508683</v>
       </c>
       <c r="C109">
-        <v>0.09593475595223502</v>
+        <v>0.4491790904593609</v>
       </c>
       <c r="D109">
-        <v>0.9034700084642107</v>
+        <v>0.3616140977897708</v>
       </c>
       <c r="E109">
-        <v>0.1892068117508683</v>
+        <v>0.001493517425588653</v>
       </c>
       <c r="F109">
-        <v>0.4491790904593609</v>
+        <v>0.2406940026319896</v>
       </c>
       <c r="G109">
-        <v>0.3616140977897708</v>
+        <v>0.7578124799424217</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2912,22 +2912,22 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.0004094385227716607</v>
+        <v>0.2095792646455757</v>
       </c>
       <c r="C110">
-        <v>0.0840820986666185</v>
+        <v>0.4426688851268242</v>
       </c>
       <c r="D110">
-        <v>0.9155084628106099</v>
+        <v>0.3477518502276004</v>
       </c>
       <c r="E110">
-        <v>0.2095792646455757</v>
+        <v>0.001050380809291505</v>
       </c>
       <c r="F110">
-        <v>0.4426688851268242</v>
+        <v>0.3767909028990892</v>
       </c>
       <c r="G110">
-        <v>0.3477518502276004</v>
+        <v>0.6221587162916193</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -2935,22 +2935,22 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.1945046732542804</v>
+        <v>0.228585343737975</v>
       </c>
       <c r="C111">
-        <v>0.4433981269266102</v>
+        <v>0.4365953171163923</v>
       </c>
       <c r="D111">
-        <v>0.3620971998191094</v>
+        <v>0.3348193391456327</v>
       </c>
       <c r="E111">
-        <v>0.228585343737975</v>
+        <v>0.1663884662964755</v>
       </c>
       <c r="F111">
-        <v>0.4365953171163923</v>
+        <v>0.4575862360874728</v>
       </c>
       <c r="G111">
-        <v>0.3348193391456327</v>
+        <v>0.3760252976160518</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -2958,22 +2958,22 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.0003445822660905605</v>
+        <v>0.2463166949619617</v>
       </c>
       <c r="C112">
-        <v>0.03159397763583687</v>
+        <v>0.4309291002809962</v>
       </c>
       <c r="D112">
-        <v>0.9680614400980726</v>
+        <v>0.3227542047570425</v>
       </c>
       <c r="E112">
-        <v>0.2463166949619617</v>
+        <v>0.1456762410706333</v>
       </c>
       <c r="F112">
-        <v>0.4309291002809962</v>
+        <v>0.4725888641812915</v>
       </c>
       <c r="G112">
-        <v>0.3227542047570425</v>
+        <v>0.3817348947480754</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -2981,22 +2981,22 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.0004825853916875394</v>
+        <v>0.262858810923481</v>
       </c>
       <c r="C113">
-        <v>0.3411203948452002</v>
+        <v>0.4256429144887112</v>
       </c>
       <c r="D113">
-        <v>0.6583970197631124</v>
+        <v>0.3114982745878081</v>
       </c>
       <c r="E113">
-        <v>0.262858810923481</v>
+        <v>0.001032441039649305</v>
       </c>
       <c r="F113">
-        <v>0.4256429144887112</v>
+        <v>0.4443734884280353</v>
       </c>
       <c r="G113">
-        <v>0.3114982745878081</v>
+        <v>0.5545940705323154</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3004,22 +3004,22 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.0004487847133129696</v>
+        <v>0.2782914547364059</v>
       </c>
       <c r="C114">
-        <v>0.03330355108742483</v>
+        <v>0.4207112706590008</v>
       </c>
       <c r="D114">
-        <v>0.9662476641992622</v>
+        <v>0.3009972746045912</v>
       </c>
       <c r="E114">
-        <v>0.2782914547364059</v>
+        <v>0.113213824663135</v>
       </c>
       <c r="F114">
-        <v>0.4207112706590008</v>
+        <v>0.4502728394822227</v>
       </c>
       <c r="G114">
-        <v>0.3009972746045912</v>
+        <v>0.4365133358546423</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3027,22 +3027,22 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.001375748744119898</v>
+        <v>0.2926890358529213</v>
       </c>
       <c r="C115">
-        <v>0.1738470632096238</v>
+        <v>0.4161103905922398</v>
       </c>
       <c r="D115">
-        <v>0.8247771880462563</v>
+        <v>0.2912005735548386</v>
       </c>
       <c r="E115">
-        <v>0.2926890358529213</v>
+        <v>0.0003355920532836025</v>
       </c>
       <c r="F115">
-        <v>0.4161103905922398</v>
+        <v>0.3575923488643968</v>
       </c>
       <c r="G115">
-        <v>0.2912005735548386</v>
+        <v>0.6420720590823196</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3050,22 +3050,22 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.2901405989124031</v>
+        <v>0.3061209782018865</v>
       </c>
       <c r="C116">
-        <v>0.4100010060770539</v>
+        <v>0.4118180896100775</v>
       </c>
       <c r="D116">
-        <v>0.2998583950105431</v>
+        <v>0.2820609321880362</v>
       </c>
       <c r="E116">
-        <v>0.3061209782018865</v>
+        <v>0.09342045447482217</v>
       </c>
       <c r="F116">
-        <v>0.4118180896100775</v>
+        <v>0.4718380446326695</v>
       </c>
       <c r="G116">
-        <v>0.2820609321880362</v>
+        <v>0.4347415008925083</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3073,22 +3073,22 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.000407519185944491</v>
+        <v>0.3186520450233685</v>
       </c>
       <c r="C117">
-        <v>0.227908663434117</v>
+        <v>0.4078136715621675</v>
       </c>
       <c r="D117">
-        <v>0.7716838173799385</v>
+        <v>0.2735342834144641</v>
       </c>
       <c r="E117">
-        <v>0.3186520450233685</v>
+        <v>0.001242425508753831</v>
       </c>
       <c r="F117">
-        <v>0.4078136715621675</v>
+        <v>0.4000066926761059</v>
       </c>
       <c r="G117">
-        <v>0.2735342834144641</v>
+        <v>0.5987508818151401</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3096,22 +3096,22 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.2882436549086159</v>
+        <v>0.3303426582381611</v>
       </c>
       <c r="C118">
-        <v>0.4296570242656058</v>
+        <v>0.4040778282204435</v>
       </c>
       <c r="D118">
-        <v>0.2820993208257783</v>
+        <v>0.2655795135413955</v>
       </c>
       <c r="E118">
-        <v>0.3303426582381611</v>
+        <v>0.3351034081048996</v>
       </c>
       <c r="F118">
-        <v>0.4040778282204435</v>
+        <v>0.3892794219839116</v>
       </c>
       <c r="G118">
-        <v>0.2655795135413955</v>
+        <v>0.2756171699111887</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3119,22 +3119,22 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.0006287838610455501</v>
+        <v>0.3412491867312897</v>
       </c>
       <c r="C119">
-        <v>0.2544148060562649</v>
+        <v>0.4005925463874978</v>
       </c>
       <c r="D119">
-        <v>0.7449564100826895</v>
+        <v>0.2581582668812124</v>
       </c>
       <c r="E119">
-        <v>0.3412491867312897</v>
+        <v>0.3165506861115743</v>
       </c>
       <c r="F119">
-        <v>0.4005925463874978</v>
+        <v>0.4105943314428906</v>
       </c>
       <c r="G119">
-        <v>0.2581582668812124</v>
+        <v>0.272854982445535</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3142,22 +3142,22 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.4449076826593779</v>
+        <v>0.3514242187457182</v>
       </c>
       <c r="C120">
-        <v>0.3677640266892548</v>
+        <v>0.3973410210042086</v>
       </c>
       <c r="D120">
-        <v>0.1873282906513673</v>
+        <v>0.2512347602500732</v>
       </c>
       <c r="E120">
-        <v>0.3514242187457182</v>
+        <v>0.1823202571288942</v>
       </c>
       <c r="F120">
-        <v>0.3973410210042086</v>
+        <v>0.4483015666370909</v>
       </c>
       <c r="G120">
-        <v>0.2512347602500732</v>
+        <v>0.369378176234015</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3165,22 +3165,22 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.1701615049407315</v>
+        <v>0.3609168154516014</v>
       </c>
       <c r="C121">
-        <v>0.4684082348086252</v>
+        <v>0.394307574120066</v>
       </c>
       <c r="D121">
-        <v>0.3614302602506432</v>
+        <v>0.2447756104283326</v>
       </c>
       <c r="E121">
-        <v>0.3609168154516014</v>
+        <v>0.0404881521326441</v>
       </c>
       <c r="F121">
-        <v>0.394307574120066</v>
+        <v>0.499065476040256</v>
       </c>
       <c r="G121">
-        <v>0.2447756104283326</v>
+        <v>0.4604463718270998</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3188,22 +3188,22 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.02835176707675378</v>
+        <v>0.369772747510515</v>
       </c>
       <c r="C122">
-        <v>0.4741794721305089</v>
+        <v>0.3914775792979402</v>
       </c>
       <c r="D122">
-        <v>0.4974687607927373</v>
+        <v>0.2387496731915447</v>
       </c>
       <c r="E122">
-        <v>0.369772747510515</v>
+        <v>0.0002941367907193362</v>
       </c>
       <c r="F122">
-        <v>0.3914775792979402</v>
+        <v>0.06489353339673207</v>
       </c>
       <c r="G122">
-        <v>0.2387496731915447</v>
+        <v>0.9348123298125486</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3211,22 +3211,22 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.0009991288666770244</v>
+        <v>0.3780347157622848</v>
       </c>
       <c r="C123">
-        <v>0.5160448703896651</v>
+        <v>0.3888373910901379</v>
       </c>
       <c r="D123">
-        <v>0.4829560007436579</v>
+        <v>0.2331278931475775</v>
       </c>
       <c r="E123">
-        <v>0.3780347157622848</v>
+        <v>0.02957636539744051</v>
       </c>
       <c r="F123">
-        <v>0.3888373910901379</v>
+        <v>0.5044767500013756</v>
       </c>
       <c r="G123">
-        <v>0.2331278931475775</v>
+        <v>0.4659468846011839</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3234,22 +3234,22 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.2629479561423929</v>
+        <v>0.3857425571208459</v>
       </c>
       <c r="C124">
-        <v>0.4114565578543301</v>
+        <v>0.3863742792434223</v>
       </c>
       <c r="D124">
-        <v>0.325595486003277</v>
+        <v>0.227883163635732</v>
       </c>
       <c r="E124">
-        <v>0.3857425571208459</v>
+        <v>0.002023594174079247</v>
       </c>
       <c r="F124">
-        <v>0.3863742792434223</v>
+        <v>0.3512386799043813</v>
       </c>
       <c r="G124">
-        <v>0.227883163635732</v>
+        <v>0.6467377259215394</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3257,22 +3257,22 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.0004366929705248278</v>
+        <v>0.3929334366555995</v>
       </c>
       <c r="C125">
-        <v>0.04612897491211596</v>
+        <v>0.384076367317372</v>
       </c>
       <c r="D125">
-        <v>0.9534343321173593</v>
+        <v>0.2229901960270285</v>
       </c>
       <c r="E125">
-        <v>0.3929334366555995</v>
+        <v>0.358234383227587</v>
       </c>
       <c r="F125">
-        <v>0.384076367317372</v>
+        <v>0.4077340710665743</v>
       </c>
       <c r="G125">
-        <v>0.2229901960270285</v>
+        <v>0.2340315457058388</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3280,22 +3280,22 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.424785886902334</v>
+        <v>0.3996420267908284</v>
       </c>
       <c r="C126">
-        <v>0.3498219593659495</v>
+        <v>0.3819325754196654</v>
       </c>
       <c r="D126">
-        <v>0.2253921537317165</v>
+        <v>0.2184253977895061</v>
       </c>
       <c r="E126">
-        <v>0.3996420267908284</v>
+        <v>0.0006443657616699683</v>
       </c>
       <c r="F126">
-        <v>0.3819325754196654</v>
+        <v>0.3624089605996413</v>
       </c>
       <c r="G126">
-        <v>0.2184253977895061</v>
+        <v>0.6369466736386887</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3303,22 +3303,22 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.1917109809450077</v>
+        <v>0.4059006744863417</v>
       </c>
       <c r="C127">
-        <v>0.433601686152223</v>
+        <v>0.3799325667816514</v>
       </c>
       <c r="D127">
-        <v>0.3746873329027693</v>
+        <v>0.2141667587320076</v>
       </c>
       <c r="E127">
-        <v>0.4059006744863417</v>
+        <v>0.4329142584727037</v>
       </c>
       <c r="F127">
-        <v>0.3799325667816514</v>
+        <v>0.3703781663989121</v>
       </c>
       <c r="G127">
-        <v>0.2141667587320076</v>
+        <v>0.1967075751283843</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3326,22 +3326,22 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.0004392235746904465</v>
+        <v>0.4117395569733716</v>
       </c>
       <c r="C128">
-        <v>0.02847117768412209</v>
+        <v>0.3780666979534291</v>
       </c>
       <c r="D128">
-        <v>0.9710895987411875</v>
+        <v>0.2101937450731997</v>
       </c>
       <c r="E128">
-        <v>0.4117395569733716</v>
+        <v>0.3569164907183009</v>
       </c>
       <c r="F128">
-        <v>0.3780666979534291</v>
+        <v>0.4005046673706997</v>
       </c>
       <c r="G128">
-        <v>0.2101937450731997</v>
+        <v>0.2425788419109994</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3349,22 +3349,22 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.11999503703741</v>
+        <v>0.4171868282162784</v>
       </c>
       <c r="C129">
-        <v>0.484811530014007</v>
+        <v>0.3763259722510397</v>
       </c>
       <c r="D129">
-        <v>0.3951934329485831</v>
+        <v>0.2064871995326815</v>
       </c>
       <c r="E129">
-        <v>0.4171868282162784</v>
+        <v>0.0004306134059028624</v>
       </c>
       <c r="F129">
-        <v>0.3763259722510397</v>
+        <v>0.3899868872467958</v>
       </c>
       <c r="G129">
-        <v>0.2064871995326815</v>
+        <v>0.6095824993473012</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3372,22 +3372,22 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.4692570183072347</v>
+        <v>0.4222687536361902</v>
       </c>
       <c r="C130">
-        <v>0.3651814284137769</v>
+        <v>0.3747019960871829</v>
       </c>
       <c r="D130">
-        <v>0.1655615532789882</v>
+        <v>0.2030292502766269</v>
       </c>
       <c r="E130">
-        <v>0.4222687536361902</v>
+        <v>0.006657065037039302</v>
       </c>
       <c r="F130">
-        <v>0.3747019960871829</v>
+        <v>0.4261693016479302</v>
       </c>
       <c r="G130">
-        <v>0.2030292502766269</v>
+        <v>0.5671736333150303</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3395,22 +3395,22 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.0008522926981911939</v>
+        <v>0.4270098359105405</v>
       </c>
       <c r="C131">
-        <v>0.1053018114109433</v>
+        <v>0.3731869394989559</v>
       </c>
       <c r="D131">
-        <v>0.8938458958908655</v>
+        <v>0.1998032245905035</v>
       </c>
       <c r="E131">
-        <v>0.4270098359105405</v>
+        <v>0.4565157510809392</v>
       </c>
       <c r="F131">
-        <v>0.3731869394989559</v>
+        <v>0.3692570591419942</v>
       </c>
       <c r="G131">
-        <v>0.1998032245905035</v>
+        <v>0.1742271897770667</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3418,22 +3418,22 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.0003064850268384706</v>
+        <v>0.4314329356631054</v>
       </c>
       <c r="C132">
-        <v>0.2823456337299538</v>
+        <v>0.3717734971761475</v>
       </c>
       <c r="D132">
-        <v>0.7173478812432078</v>
+        <v>0.1967935671607473</v>
       </c>
       <c r="E132">
-        <v>0.4314329356631054</v>
+        <v>0.002685793228640544</v>
       </c>
       <c r="F132">
-        <v>0.3717734971761475</v>
+        <v>0.2920464586285517</v>
       </c>
       <c r="G132">
-        <v>0.1967935671607473</v>
+        <v>0.7052677481428078</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3441,22 +3441,22 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.03033548663713875</v>
+        <v>0.4355593800110311</v>
       </c>
       <c r="C133">
-        <v>0.5127083864274341</v>
+        <v>0.3704548537747397</v>
       </c>
       <c r="D133">
-        <v>0.456956126935427</v>
+        <v>0.1939857662142292</v>
       </c>
       <c r="E133">
-        <v>0.4355593800110311</v>
+        <v>0.004700863074693222</v>
       </c>
       <c r="F133">
-        <v>0.3704548537747397</v>
+        <v>0.5092212670408262</v>
       </c>
       <c r="G133">
-        <v>0.1939857662142292</v>
+        <v>0.4860778698844808</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3464,22 +3464,22 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.0003914155390779618</v>
+        <v>0.4394090653357184</v>
       </c>
       <c r="C134">
-        <v>0.2106879055963049</v>
+        <v>0.3692246512969409</v>
       </c>
       <c r="D134">
-        <v>0.7889206788646171</v>
+        <v>0.1913662833673406</v>
       </c>
       <c r="E134">
-        <v>0.4394090653357184</v>
+        <v>0.05673003730094842</v>
       </c>
       <c r="F134">
-        <v>0.3692246512969409</v>
+        <v>0.4815706611644757</v>
       </c>
       <c r="G134">
-        <v>0.1913662833673406</v>
+        <v>0.4616993015345759</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3487,22 +3487,22 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.1632337614440828</v>
+        <v>0.4430005537883386</v>
       </c>
       <c r="C135">
-        <v>0.463414510972542</v>
+        <v>0.3680769580089567</v>
       </c>
       <c r="D135">
-        <v>0.3733517275833751</v>
+        <v>0.1889224882027043</v>
       </c>
       <c r="E135">
-        <v>0.4430005537883386</v>
+        <v>0.2714231080730175</v>
       </c>
       <c r="F135">
-        <v>0.3680769580089567</v>
+        <v>0.4347318556077842</v>
       </c>
       <c r="G135">
-        <v>0.1889224882027043</v>
+        <v>0.2938450363191982</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3510,22 +3510,22 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.0003155961615535895</v>
+        <v>0.4463511625375125</v>
       </c>
       <c r="C136">
-        <v>0.1423049439697316</v>
+        <v>0.3670062400509623</v>
       </c>
       <c r="D136">
-        <v>0.8573794598687149</v>
+        <v>0.1866425974115252</v>
       </c>
       <c r="E136">
-        <v>0.4463511625375125</v>
+        <v>0.106008210986451</v>
       </c>
       <c r="F136">
-        <v>0.3670062400509623</v>
+        <v>0.4938851783043047</v>
       </c>
       <c r="G136">
-        <v>0.1866425974115252</v>
+        <v>0.4001066107092444</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3533,22 +3533,22 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.0007916227323152291</v>
+        <v>0.4494770472525438</v>
       </c>
       <c r="C137">
-        <v>0.5015327962667311</v>
+        <v>0.3660073347208957</v>
       </c>
       <c r="D137">
-        <v>0.4976755810009537</v>
+        <v>0.1845156180265607</v>
       </c>
       <c r="E137">
-        <v>0.4494770472525438</v>
+        <v>0.003352571554849434</v>
       </c>
       <c r="F137">
-        <v>0.3660073347208957</v>
+        <v>0.4102519018213516</v>
       </c>
       <c r="G137">
-        <v>0.1845156180265607</v>
+        <v>0.5863955266237989</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3556,22 +3556,22 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.0005223493253716821</v>
+        <v>0.4523932801325753</v>
       </c>
       <c r="C138">
-        <v>0.07541663237317321</v>
+        <v>0.3650754255709203</v>
       </c>
       <c r="D138">
-        <v>0.9240610183014552</v>
+        <v>0.1825312942965042</v>
       </c>
       <c r="E138">
-        <v>0.4523932801325753</v>
+        <v>0.002506425592963065</v>
       </c>
       <c r="F138">
-        <v>0.3650754255709203</v>
+        <v>0.2999557759592201</v>
       </c>
       <c r="G138">
-        <v>0.1825312942965042</v>
+        <v>0.6975377984478168</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3579,22 +3579,22 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.01023161775087989</v>
+        <v>0.4551139224734093</v>
       </c>
       <c r="C139">
-        <v>0.4519995071240769</v>
+        <v>0.3642060191899991</v>
       </c>
       <c r="D139">
-        <v>0.5377688751250432</v>
+        <v>0.1806800583365905</v>
       </c>
       <c r="E139">
-        <v>0.4551139224734093</v>
+        <v>0.3093390840368335</v>
       </c>
       <c r="F139">
-        <v>0.3642060191899991</v>
+        <v>0.4030284392811959</v>
       </c>
       <c r="G139">
-        <v>0.1806800583365905</v>
+        <v>0.2876324766819706</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3602,22 +3602,22 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.09726974187813985</v>
+        <v>0.4576520928469073</v>
       </c>
       <c r="C140">
-        <v>0.4814547635316053</v>
+        <v>0.3633949234978119</v>
       </c>
       <c r="D140">
-        <v>0.4212754945902549</v>
+        <v>0.1789529836552834</v>
       </c>
       <c r="E140">
-        <v>0.4576520928469073</v>
+        <v>0.143284902989929</v>
       </c>
       <c r="F140">
-        <v>0.3633949234978119</v>
+        <v>0.4531382497211464</v>
       </c>
       <c r="G140">
-        <v>0.1789529836552834</v>
+        <v>0.4035768472889245</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3625,22 +3625,22 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.0003060118718025259</v>
+        <v>0.4600200288208975</v>
       </c>
       <c r="C141">
-        <v>0.1654137977610207</v>
+        <v>0.3626382277044704</v>
       </c>
       <c r="D141">
-        <v>0.8342801903671767</v>
+        <v>0.1773417434746311</v>
       </c>
       <c r="E141">
-        <v>0.4600200288208975</v>
+        <v>0.256381513663879</v>
       </c>
       <c r="F141">
-        <v>0.3626382277044704</v>
+        <v>0.4217986251726494</v>
       </c>
       <c r="G141">
-        <v>0.1773417434746311</v>
+        <v>0.3218198611634716</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -3648,22 +3648,22 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.2730859805399956</v>
+        <v>0.4622291482819931</v>
       </c>
       <c r="C142">
-        <v>0.4427885854905533</v>
+        <v>0.3619322831933822</v>
       </c>
       <c r="D142">
-        <v>0.2841254339694511</v>
+        <v>0.1758385685246221</v>
       </c>
       <c r="E142">
-        <v>0.4622291482819931</v>
+        <v>0.004527117146572171</v>
       </c>
       <c r="F142">
-        <v>0.3619322831933822</v>
+        <v>0.3058484079140605</v>
       </c>
       <c r="G142">
-        <v>0.1758385685246221</v>
+        <v>0.6896244749393673</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -3671,22 +3671,22 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.007797052989773475</v>
+        <v>0.4642901029910748</v>
       </c>
       <c r="C143">
-        <v>0.435908924650293</v>
+        <v>0.3612736860963297</v>
       </c>
       <c r="D143">
-        <v>0.5562940223599335</v>
+        <v>0.1744362109125941</v>
       </c>
       <c r="E143">
-        <v>0.4642901029910748</v>
+        <v>0.09504679667934844</v>
       </c>
       <c r="F143">
-        <v>0.3612736860963297</v>
+        <v>0.4609772154059942</v>
       </c>
       <c r="G143">
-        <v>0.1744362109125941</v>
+        <v>0.4439759879146573</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -3694,22 +3694,22 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.0004678103598653199</v>
+        <v>0.4662128302973906</v>
       </c>
       <c r="C144">
-        <v>0.01530378381235252</v>
+        <v>0.36065926084143</v>
       </c>
       <c r="D144">
-        <v>0.9842284058277821</v>
+        <v>0.1731279088611799</v>
       </c>
       <c r="E144">
-        <v>0.4662128302973906</v>
+        <v>0.1132906232924488</v>
       </c>
       <c r="F144">
-        <v>0.36065926084143</v>
+        <v>0.4597357565443944</v>
       </c>
       <c r="G144">
-        <v>0.1731279088611799</v>
+        <v>0.4269736201631567</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -3717,22 +3717,22 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.0004611084132911704</v>
+        <v>0.4680066010567518</v>
       </c>
       <c r="C145">
-        <v>0.1929126735044278</v>
+        <v>0.3600860448410692</v>
       </c>
       <c r="D145">
-        <v>0.8066262180822809</v>
+        <v>0.17190735410218</v>
       </c>
       <c r="E145">
-        <v>0.4680066010567518</v>
+        <v>0.001368136442228179</v>
       </c>
       <c r="F145">
-        <v>0.3600860448410692</v>
+        <v>0.3915164386059642</v>
       </c>
       <c r="G145">
-        <v>0.17190735410218</v>
+        <v>0.6071154249518076</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3740,22 +3740,22 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.1007654722046792</v>
+        <v>0.4696800643343076</v>
       </c>
       <c r="C146">
-        <v>0.4927241084746918</v>
+        <v>0.3595512742069686</v>
       </c>
       <c r="D146">
-        <v>0.4065104193206291</v>
+        <v>0.1707686614587236</v>
       </c>
       <c r="E146">
-        <v>0.4696800643343076</v>
+        <v>0.0005157137673310648</v>
       </c>
       <c r="F146">
-        <v>0.3595512742069686</v>
+        <v>0.3315107108937327</v>
       </c>
       <c r="G146">
-        <v>0.1707686614587236</v>
+        <v>0.6679735753389362</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -3763,22 +3763,22 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.0002831471604090128</v>
+        <v>0.4712412891036735</v>
       </c>
       <c r="C147">
-        <v>0.09189743198269082</v>
+        <v>0.3590523704239762</v>
       </c>
       <c r="D147">
-        <v>0.9078194208569</v>
+        <v>0.1697063404723519</v>
       </c>
       <c r="E147">
-        <v>0.4712412891036735</v>
+        <v>0.05660611234313878</v>
       </c>
       <c r="F147">
-        <v>0.3590523704239762</v>
+        <v>0.4684028248134871</v>
       </c>
       <c r="G147">
-        <v>0.1697063404723519</v>
+        <v>0.474991062843374</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -3786,22 +3786,22 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.001062202845740857</v>
+        <v>0.472697803127778</v>
       </c>
       <c r="C148">
-        <v>0.3434242059695526</v>
+        <v>0.3585869279221309</v>
       </c>
       <c r="D148">
-        <v>0.6555135911847064</v>
+        <v>0.1687152689500934</v>
       </c>
       <c r="E148">
-        <v>0.472697803127778</v>
+        <v>0.01289021235653771</v>
       </c>
       <c r="F148">
-        <v>0.3585869279221309</v>
+        <v>0.07543269817419145</v>
       </c>
       <c r="G148">
-        <v>0.1687152689500934</v>
+        <v>0.9116770894692708</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -3809,22 +3809,22 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.001862844995514126</v>
+        <v>0.4740566294021618</v>
       </c>
       <c r="C149">
-        <v>0.01761522637060536</v>
+        <v>0.3581527024496898</v>
       </c>
       <c r="D149">
-        <v>0.9805219286338805</v>
+        <v>0.1677906681481487</v>
       </c>
       <c r="E149">
-        <v>0.4740566294021618</v>
+        <v>0.1562174729307787</v>
       </c>
       <c r="F149">
-        <v>0.3581527024496898</v>
+        <v>0.4541417891511095</v>
       </c>
       <c r="G149">
-        <v>0.1677906681481487</v>
+        <v>0.3896407379181119</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -3832,22 +3832,22 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.0002991604069906587</v>
+        <v>0.4753243197083919</v>
       </c>
       <c r="C150">
-        <v>0.4596882964073281</v>
+        <v>0.3577476003130681</v>
       </c>
       <c r="D150">
-        <v>0.5400125431856813</v>
+        <v>0.1669280799785392</v>
       </c>
       <c r="E150">
-        <v>0.4753243197083919</v>
+        <v>0.3079255931819607</v>
       </c>
       <c r="F150">
-        <v>0.3577476003130681</v>
+        <v>0.4142206468056704</v>
       </c>
       <c r="G150">
-        <v>0.1669280799785392</v>
+        <v>0.2778537600123689</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -3855,722 +3855,1172 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>9.970783569731028e-05</v>
+        <v>0.4765069865426202</v>
       </c>
       <c r="C151">
-        <v>0.1489821001670002</v>
+        <v>0.3573696682108787</v>
       </c>
       <c r="D151">
-        <v>0.8509181919973025</v>
+        <v>0.1661233452465012</v>
       </c>
       <c r="E151">
-        <v>0.4765069865426202</v>
+        <v>0.07177291755521324</v>
       </c>
       <c r="F151">
-        <v>0.3573696682108787</v>
+        <v>0.4846188171114733</v>
       </c>
       <c r="G151">
-        <v>0.1661233452465012</v>
+        <v>0.4436082653333134</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="1">
         <v>150</v>
       </c>
+      <c r="B152">
+        <v>0.4776103323859539</v>
+      </c>
+      <c r="C152">
+        <v>0.3570170838648859</v>
+      </c>
+      <c r="D152">
+        <v>0.1653725837491606</v>
+      </c>
       <c r="E152">
-        <v>0.4776103323859539</v>
+        <v>0.08332144316460469</v>
       </c>
       <c r="F152">
-        <v>0.3570170838648859</v>
+        <v>0.4808011682306873</v>
       </c>
       <c r="G152">
-        <v>0.1653725837491606</v>
+        <v>0.435877388604708</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="1">
         <v>151</v>
       </c>
+      <c r="B153">
+        <v>0.4786396772684027</v>
+      </c>
+      <c r="C153">
+        <v>0.3566881472080072</v>
+      </c>
+      <c r="D153">
+        <v>0.1646721755235903</v>
+      </c>
       <c r="E153">
-        <v>0.4786396772684027</v>
+        <v>0.01241718145785363</v>
       </c>
       <c r="F153">
-        <v>0.3566881472080072</v>
+        <v>0.5114873516411051</v>
       </c>
       <c r="G153">
-        <v>0.1646721755235903</v>
+        <v>0.4760954669010413</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="1">
         <v>152</v>
       </c>
+      <c r="B154">
+        <v>0.4795999844085628</v>
+      </c>
+      <c r="C154">
+        <v>0.3563812721997168</v>
+      </c>
+      <c r="D154">
+        <v>0.1640187433917199</v>
+      </c>
       <c r="E154">
-        <v>0.4795999844085628</v>
+        <v>0.2826286361106494</v>
       </c>
       <c r="F154">
-        <v>0.3563812721997168</v>
+        <v>0.4368163619529883</v>
       </c>
       <c r="G154">
-        <v>0.1640187433917199</v>
+        <v>0.2805550019363623</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="1">
         <v>153</v>
       </c>
+      <c r="B155">
+        <v>0.4804958841331607</v>
+      </c>
+      <c r="C155">
+        <v>0.3560949791749444</v>
+      </c>
+      <c r="D155">
+        <v>0.1634091366918952</v>
+      </c>
       <c r="E155">
-        <v>0.4804958841331607</v>
+        <v>0.0005725031773942089</v>
       </c>
       <c r="F155">
-        <v>0.3560949791749444</v>
+        <v>0.3811682048439147</v>
       </c>
       <c r="G155">
-        <v>0.1634091366918952</v>
+        <v>0.618259291978691</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="1">
         <v>154</v>
       </c>
+      <c r="B156">
+        <v>0.4813316962234849</v>
+      </c>
+      <c r="C156">
+        <v>0.355827887708129</v>
+      </c>
+      <c r="D156">
+        <v>0.1628404160683865</v>
+      </c>
       <c r="E156">
-        <v>0.4813316962234849</v>
+        <v>0.1862740812842301</v>
       </c>
       <c r="F156">
-        <v>0.355827887708129</v>
+        <v>0.4535265500500651</v>
       </c>
       <c r="G156">
-        <v>0.1628404160683865</v>
+        <v>0.3601993686657048</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="1">
         <v>155</v>
       </c>
+      <c r="B157">
+        <v>0.4821114507297977</v>
+      </c>
+      <c r="C157">
+        <v>0.3555787099575236</v>
+      </c>
+      <c r="D157">
+        <v>0.1623098393126789</v>
+      </c>
       <c r="E157">
-        <v>0.4821114507297977</v>
+        <v>0.1636151450251925</v>
       </c>
       <c r="F157">
-        <v>0.3555787099575236</v>
+        <v>0.4715502486216009</v>
       </c>
       <c r="G157">
-        <v>0.1623098393126789</v>
+        <v>0.3648346063532066</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="1">
         <v>156</v>
       </c>
+      <c r="B158">
+        <v>0.4828389073372756</v>
+      </c>
+      <c r="C158">
+        <v>0.3553462444674168</v>
+      </c>
+      <c r="D158">
+        <v>0.1618148481953076</v>
+      </c>
       <c r="E158">
-        <v>0.4828389073372756</v>
+        <v>0.1940075313028335</v>
       </c>
       <c r="F158">
-        <v>0.3553462444674168</v>
+        <v>0.4502291035107717</v>
       </c>
       <c r="G158">
-        <v>0.1618148481953076</v>
+        <v>0.3557633651863948</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="1">
         <v>157</v>
       </c>
+      <c r="B159">
+        <v>0.4835175738825391</v>
+      </c>
+      <c r="C159">
+        <v>0.3551293703293443</v>
+      </c>
+      <c r="D159">
+        <v>0.1613530557881165</v>
+      </c>
       <c r="E159">
-        <v>0.4835175738825391</v>
+        <v>0.1538736400538816</v>
       </c>
       <c r="F159">
-        <v>0.3551293703293443</v>
+        <v>0.4457704806621332</v>
       </c>
       <c r="G159">
-        <v>0.1613530557881165</v>
+        <v>0.4003558792839853</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="1">
         <v>158</v>
       </c>
+      <c r="B160">
+        <v>0.4841507223958718</v>
+      </c>
+      <c r="C160">
+        <v>0.3549270418658562</v>
+      </c>
+      <c r="D160">
+        <v>0.160922235738271</v>
+      </c>
       <c r="E160">
-        <v>0.4841507223958718</v>
+        <v>0.1510380934920275</v>
       </c>
       <c r="F160">
-        <v>0.3549270418658562</v>
+        <v>0.4474947961628207</v>
       </c>
       <c r="G160">
-        <v>0.160922235738271</v>
+        <v>0.4014671103451518</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="1">
         <v>159</v>
       </c>
+      <c r="B161">
+        <v>0.484741406013508</v>
+      </c>
+      <c r="C161">
+        <v>0.3547382834777428</v>
+      </c>
+      <c r="D161">
+        <v>0.1605203105087509</v>
+      </c>
       <c r="E161">
-        <v>0.484741406013508</v>
+        <v>0.002032421074997297</v>
       </c>
       <c r="F161">
-        <v>0.3547382834777428</v>
+        <v>0.356993753951695</v>
       </c>
       <c r="G161">
-        <v>0.1605203105087509</v>
+        <v>0.6409738249733078</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="1">
         <v>160</v>
       </c>
+      <c r="B162">
+        <v>0.4852924726604852</v>
+      </c>
+      <c r="C162">
+        <v>0.3545621850451539</v>
+      </c>
+      <c r="D162">
+        <v>0.1601453422943603</v>
+      </c>
       <c r="E162">
-        <v>0.4852924726604852</v>
+        <v>0.006607033690817495</v>
       </c>
       <c r="F162">
-        <v>0.3545621850451539</v>
+        <v>0.2238137299287019</v>
       </c>
       <c r="G162">
-        <v>0.1601453422943603</v>
+        <v>0.7695792363804806</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="1">
         <v>161</v>
       </c>
+      <c r="B163">
+        <v>0.4858065794698735</v>
+      </c>
+      <c r="C163">
+        <v>0.3543978974832621</v>
+      </c>
+      <c r="D163">
+        <v>0.1597955230468643</v>
+      </c>
       <c r="E163">
-        <v>0.4858065794698735</v>
+        <v>0.001031109421785602</v>
       </c>
       <c r="F163">
-        <v>0.3543978974832621</v>
+        <v>0.409651222545503</v>
       </c>
       <c r="G163">
-        <v>0.1597955230468643</v>
+        <v>0.5893176680327114</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="1">
         <v>162</v>
       </c>
+      <c r="B164">
+        <v>0.4862862053799978</v>
+      </c>
+      <c r="C164">
+        <v>0.3542446285837719</v>
+      </c>
+      <c r="D164">
+        <v>0.1594691660362301</v>
+      </c>
       <c r="E164">
-        <v>0.4862862053799978</v>
+        <v>0.004778739493711619</v>
       </c>
       <c r="F164">
-        <v>0.3542446285837719</v>
+        <v>0.4784532816866381</v>
       </c>
       <c r="G164">
-        <v>0.1594691660362301</v>
+        <v>0.5167679788196503</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="1">
         <v>163</v>
       </c>
+      <c r="B165">
+        <v>0.4867336629553288</v>
+      </c>
+      <c r="C165">
+        <v>0.3541016393859396</v>
+      </c>
+      <c r="D165">
+        <v>0.1591646976587317</v>
+      </c>
       <c r="E165">
-        <v>0.4867336629553288</v>
+        <v>0.1637554622301879</v>
       </c>
       <c r="F165">
-        <v>0.3541016393859396</v>
+        <v>0.4438300926868093</v>
       </c>
       <c r="G165">
-        <v>0.1591646976587317</v>
+        <v>0.3924144450830029</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="1">
         <v>164</v>
       </c>
+      <c r="B166">
+        <v>0.4871511097211504</v>
+      </c>
+      <c r="C166">
+        <v>0.3539682404284314</v>
+      </c>
+      <c r="D166">
+        <v>0.1588806498504182</v>
+      </c>
       <c r="E166">
-        <v>0.4871511097211504</v>
+        <v>0.409207614472311</v>
       </c>
       <c r="F166">
-        <v>0.3539682404284314</v>
+        <v>0.3776914572763287</v>
       </c>
       <c r="G166">
-        <v>0.1588806498504182</v>
+        <v>0.2131009282513603</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="1">
         <v>165</v>
       </c>
+      <c r="B167">
+        <v>0.4875405585178882</v>
+      </c>
+      <c r="C167">
+        <v>0.3538437884611915</v>
+      </c>
+      <c r="D167">
+        <v>0.1586156530209203</v>
+      </c>
       <c r="E167">
-        <v>0.4875405585178882</v>
+        <v>0.0072619454699948</v>
       </c>
       <c r="F167">
-        <v>0.3538437884611915</v>
+        <v>0.1232497468802341</v>
       </c>
       <c r="G167">
-        <v>0.1586156530209203</v>
+        <v>0.869488307649771</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="1">
         <v>166</v>
       </c>
+      <c r="B168">
+        <v>0.4879038871346361</v>
+      </c>
+      <c r="C168">
+        <v>0.3537276834499449</v>
+      </c>
+      <c r="D168">
+        <v>0.1583684294154195</v>
+      </c>
       <c r="E168">
-        <v>0.4879038871346361</v>
+        <v>0.4540530285217489</v>
       </c>
       <c r="F168">
-        <v>0.3537276834499449</v>
+        <v>0.361218949996116</v>
       </c>
       <c r="G168">
-        <v>0.1583684294154195</v>
+        <v>0.1847280214821352</v>
       </c>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="1">
         <v>167</v>
       </c>
+      <c r="B169">
+        <v>0.4882428474428123</v>
+      </c>
+      <c r="C169">
+        <v>0.3536193655546646</v>
+      </c>
+      <c r="D169">
+        <v>0.1581377870025241</v>
+      </c>
       <c r="E169">
-        <v>0.4882428474428123</v>
+        <v>0.006087348778229885</v>
       </c>
       <c r="F169">
-        <v>0.3536193655546646</v>
+        <v>0.4978228121517122</v>
       </c>
       <c r="G169">
-        <v>0.1581377870025241</v>
+        <v>0.4960898390700579</v>
       </c>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="1">
         <v>168</v>
       </c>
+      <c r="B170">
+        <v>0.4885590738147745</v>
+      </c>
+      <c r="C170">
+        <v>0.3535183124975375</v>
+      </c>
+      <c r="D170">
+        <v>0.1579226136876882</v>
+      </c>
       <c r="E170">
-        <v>0.4885590738147745</v>
+        <v>0.2712296646524672</v>
       </c>
       <c r="F170">
-        <v>0.3535183124975375</v>
+        <v>0.4094233790051834</v>
       </c>
       <c r="G170">
-        <v>0.1579226136876882</v>
+        <v>0.3193469563423493</v>
       </c>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="1">
         <v>169</v>
       </c>
+      <c r="B171">
+        <v>0.4888540910299369</v>
+      </c>
+      <c r="C171">
+        <v>0.3534240370261977</v>
+      </c>
+      <c r="D171">
+        <v>0.1577218719438659</v>
+      </c>
       <c r="E171">
-        <v>0.4888540910299369</v>
+        <v>0.1811288850734796</v>
       </c>
       <c r="F171">
-        <v>0.3534240370261977</v>
+        <v>0.4585948441937612</v>
       </c>
       <c r="G171">
-        <v>0.1577218719438659</v>
+        <v>0.3602762707327593</v>
       </c>
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="1">
         <v>170</v>
       </c>
+      <c r="B172">
+        <v>0.4891293215483229</v>
+      </c>
+      <c r="C172">
+        <v>0.353336084573977</v>
+      </c>
+      <c r="D172">
+        <v>0.1575345938777006</v>
+      </c>
       <c r="E172">
-        <v>0.4891293215483229</v>
+        <v>0.0003343512371001221</v>
       </c>
       <c r="F172">
-        <v>0.353336084573977</v>
+        <v>0.1621485358180321</v>
       </c>
       <c r="G172">
-        <v>0.1575345938777006</v>
+        <v>0.8375171129448677</v>
       </c>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="1">
         <v>171</v>
       </c>
+      <c r="B173">
+        <v>0.4893860924656021</v>
+      </c>
+      <c r="C173">
+        <v>0.3532540310574605</v>
+      </c>
+      <c r="D173">
+        <v>0.1573598764769399</v>
+      </c>
       <c r="E173">
-        <v>0.4893860924656021</v>
+        <v>0.003489859321599111</v>
       </c>
       <c r="F173">
-        <v>0.3532540310574605</v>
+        <v>0.2765752006353475</v>
       </c>
       <c r="G173">
-        <v>0.1573598764769399</v>
+        <v>0.7199349400430535</v>
       </c>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="1">
         <v>172</v>
       </c>
+      <c r="B174">
+        <v>0.4896256418593934</v>
+      </c>
+      <c r="C174">
+        <v>0.3531774808365318</v>
+      </c>
+      <c r="D174">
+        <v>0.1571968773040748</v>
+      </c>
       <c r="E174">
-        <v>0.4896256418593934</v>
+        <v>0.1442051540004714</v>
       </c>
       <c r="F174">
-        <v>0.3531774808365318</v>
+        <v>0.454162188403994</v>
       </c>
       <c r="G174">
-        <v>0.1571968773040748</v>
+        <v>0.4016326575955346</v>
       </c>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="1">
         <v>173</v>
       </c>
+      <c r="B175">
+        <v>0.4898491247789569</v>
+      </c>
+      <c r="C175">
+        <v>0.3531060648089221</v>
+      </c>
+      <c r="D175">
+        <v>0.157044810412121</v>
+      </c>
       <c r="E175">
-        <v>0.4898491247789569</v>
+        <v>0.3345889759211579</v>
       </c>
       <c r="F175">
-        <v>0.3531060648089221</v>
+        <v>0.401549458849503</v>
       </c>
       <c r="G175">
-        <v>0.157044810412121</v>
+        <v>0.2638615652293391</v>
       </c>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="1">
         <v>174</v>
       </c>
+      <c r="B176">
+        <v>0.4900576187790917</v>
+      </c>
+      <c r="C176">
+        <v>0.3530394386250648</v>
+      </c>
+      <c r="D176">
+        <v>0.1569029425958435</v>
+      </c>
       <c r="E176">
-        <v>0.4900576187790917</v>
+        <v>0.0008260449354414524</v>
       </c>
       <c r="F176">
-        <v>0.3530394386250648</v>
+        <v>0.3313121965480131</v>
       </c>
       <c r="G176">
-        <v>0.1569029425958435</v>
+        <v>0.6678617585165455</v>
       </c>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="1">
         <v>175</v>
       </c>
+      <c r="B177">
+        <v>0.4902521291815726</v>
+      </c>
+      <c r="C177">
+        <v>0.352977281032866</v>
+      </c>
+      <c r="D177">
+        <v>0.1567705897855615</v>
+      </c>
       <c r="E177">
-        <v>0.4902521291815726</v>
+        <v>0.2175001445809044</v>
       </c>
       <c r="F177">
-        <v>0.352977281032866</v>
+        <v>0.4249604718265048</v>
       </c>
       <c r="G177">
-        <v>0.1567705897855615</v>
+        <v>0.3575393835925909</v>
       </c>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" s="1">
         <v>176</v>
       </c>
+      <c r="B178">
+        <v>0.490433593844582</v>
+      </c>
+      <c r="C178">
+        <v>0.3529192923249999</v>
+      </c>
+      <c r="D178">
+        <v>0.1566471138304183</v>
+      </c>
       <c r="E178">
-        <v>0.490433593844582</v>
+        <v>0.0003484257671666599</v>
       </c>
       <c r="F178">
-        <v>0.3529192923249999</v>
+        <v>0.3457436884507695</v>
       </c>
       <c r="G178">
-        <v>0.1566471138304183</v>
+        <v>0.6539078857820637</v>
       </c>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="1">
         <v>177</v>
       </c>
+      <c r="B179">
+        <v>0.4906028877453474</v>
+      </c>
+      <c r="C179">
+        <v>0.3528651928967547</v>
+      </c>
+      <c r="D179">
+        <v>0.1565319193578979</v>
+      </c>
       <c r="E179">
-        <v>0.4906028877453474</v>
+        <v>0.3737295308851909</v>
       </c>
       <c r="F179">
-        <v>0.3528651928967547</v>
+        <v>0.3802696103379215</v>
       </c>
       <c r="G179">
-        <v>0.1565319193578979</v>
+        <v>0.2460008587768876</v>
       </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="1">
         <v>178</v>
       </c>
+      <c r="B180">
+        <v>0.4907608271723698</v>
+      </c>
+      <c r="C180">
+        <v>0.3528147218953172</v>
+      </c>
+      <c r="D180">
+        <v>0.156424450932313</v>
+      </c>
       <c r="E180">
-        <v>0.4907608271723698</v>
+        <v>0.1742045567951785</v>
       </c>
       <c r="F180">
-        <v>0.3528147218953172</v>
+        <v>0.4491688719244317</v>
       </c>
       <c r="G180">
-        <v>0.156424450932313</v>
+        <v>0.3766265712803898</v>
       </c>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" s="1">
         <v>179</v>
       </c>
+      <c r="B181">
+        <v>0.4909081736657674</v>
+      </c>
+      <c r="C181">
+        <v>0.3527676359635313</v>
+      </c>
+      <c r="D181">
+        <v>0.1563241903707012</v>
+      </c>
       <c r="E181">
-        <v>0.4909081736657674</v>
+        <v>0.2161460001299702</v>
       </c>
       <c r="F181">
-        <v>0.3527676359635313</v>
+        <v>0.4405265069857003</v>
       </c>
       <c r="G181">
-        <v>0.1563241903707012</v>
+        <v>0.3433274928843296</v>
       </c>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="1">
         <v>180</v>
       </c>
+      <c r="B182">
+        <v>0.491045637687985</v>
+      </c>
+      <c r="C182">
+        <v>0.352723708066457</v>
+      </c>
+      <c r="D182">
+        <v>0.1562306542455581</v>
+      </c>
       <c r="E182">
-        <v>0.491045637687985</v>
+        <v>0.3063790286364009</v>
       </c>
       <c r="F182">
-        <v>0.352723708066457</v>
+        <v>0.4116203732809897</v>
       </c>
       <c r="G182">
-        <v>0.1562306542455581</v>
+        <v>0.2820005980826095</v>
       </c>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="1">
         <v>181</v>
       </c>
+      <c r="B183">
+        <v>0.4911738820554373</v>
+      </c>
+      <c r="C183">
+        <v>0.3526827263954871</v>
+      </c>
+      <c r="D183">
+        <v>0.1561433915490759</v>
+      </c>
       <c r="E183">
-        <v>0.4911738820554373</v>
+        <v>0.4779352768200328</v>
       </c>
       <c r="F183">
-        <v>0.3526827263954871</v>
+        <v>0.3626045821824094</v>
       </c>
       <c r="G183">
-        <v>0.1561433915490759</v>
+        <v>0.1594601409975578</v>
       </c>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="1">
         <v>182</v>
       </c>
+      <c r="B184">
+        <v>0.4912935251188996</v>
+      </c>
+      <c r="C184">
+        <v>0.3526444933493828</v>
+      </c>
+      <c r="D184">
+        <v>0.1560619815317179</v>
+      </c>
       <c r="E184">
-        <v>0.4912935251188996</v>
+        <v>0.1023255222589164</v>
       </c>
       <c r="F184">
-        <v>0.3526444933493828</v>
+        <v>0.4805223824427248</v>
       </c>
       <c r="G184">
-        <v>0.1560619815317179</v>
+        <v>0.4171520952983589</v>
       </c>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" s="1">
         <v>183</v>
       </c>
+      <c r="B185">
+        <v>0.4914051437797943</v>
+      </c>
+      <c r="C185">
+        <v>0.3526088245771106</v>
+      </c>
+      <c r="D185">
+        <v>0.1559860316430948</v>
+      </c>
       <c r="E185">
-        <v>0.4914051437797943</v>
+        <v>0.002774093401642564</v>
       </c>
       <c r="F185">
-        <v>0.3526088245771106</v>
+        <v>0.2818691510933399</v>
       </c>
       <c r="G185">
-        <v>0.1559860316430948</v>
+        <v>0.7153567555050175</v>
       </c>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="1">
         <v>184</v>
       </c>
+      <c r="B186">
+        <v>0.4915092762180919</v>
+      </c>
+      <c r="C186">
+        <v>0.3525755480955688</v>
+      </c>
+      <c r="D186">
+        <v>0.1559151756863394</v>
+      </c>
       <c r="E186">
-        <v>0.4915092762180919</v>
+        <v>0.1597150745749295</v>
       </c>
       <c r="F186">
-        <v>0.3525755480955688</v>
+        <v>0.4618731313629619</v>
       </c>
       <c r="G186">
-        <v>0.1559151756863394</v>
+        <v>0.3784117940621085</v>
       </c>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="1">
         <v>185</v>
       </c>
+      <c r="B187">
+        <v>0.4916064245351451</v>
+      </c>
+      <c r="C187">
+        <v>0.3525445034542648</v>
+      </c>
+      <c r="D187">
+        <v>0.15584907201059</v>
+      </c>
       <c r="E187">
-        <v>0.4916064245351451</v>
+        <v>0.000383912780957212</v>
       </c>
       <c r="F187">
-        <v>0.3525445034542648</v>
+        <v>0.3651998200640108</v>
       </c>
       <c r="G187">
-        <v>0.15584907201059</v>
+        <v>0.6344162671550321</v>
       </c>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" s="1">
         <v>186</v>
       </c>
+      <c r="B188">
+        <v>0.4916970571532683</v>
+      </c>
+      <c r="C188">
+        <v>0.3525155409646201</v>
+      </c>
+      <c r="D188">
+        <v>0.1557874018821131</v>
+      </c>
       <c r="E188">
-        <v>0.4916970571532683</v>
+        <v>0.006161549100498766</v>
       </c>
       <c r="F188">
-        <v>0.3525155409646201</v>
+        <v>0.4396026420344554</v>
       </c>
       <c r="G188">
-        <v>0.1557874018821131</v>
+        <v>0.5542358088650459</v>
       </c>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" s="1">
         <v>187</v>
       </c>
+      <c r="B189">
+        <v>0.4917816110784977</v>
+      </c>
+      <c r="C189">
+        <v>0.3524885209774559</v>
+      </c>
+      <c r="D189">
+        <v>0.155729867944046</v>
+      </c>
       <c r="E189">
-        <v>0.4917816110784977</v>
+        <v>0.003157042520986999</v>
       </c>
       <c r="F189">
-        <v>0.3524885209774559</v>
+        <v>0.3057775940920124</v>
       </c>
       <c r="G189">
-        <v>0.155729867944046</v>
+        <v>0.6910653633870005</v>
       </c>
     </row>
     <row r="190" spans="1:7">
       <c r="A190" s="1">
         <v>188</v>
       </c>
+      <c r="B190">
+        <v>0.4918604940073795</v>
+      </c>
+      <c r="C190">
+        <v>0.3524633132097461</v>
+      </c>
+      <c r="D190">
+        <v>0.1556761927828745</v>
+      </c>
       <c r="E190">
-        <v>0.4918604940073795</v>
+        <v>0.0007938762181507765</v>
       </c>
       <c r="F190">
-        <v>0.3524633132097461</v>
+        <v>0.3481399051834638</v>
       </c>
       <c r="G190">
-        <v>0.1556761927828745</v>
+        <v>0.6510662185983854</v>
       </c>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" s="1">
         <v>189</v>
       </c>
+      <c r="B191">
+        <v>0.4919340862797754</v>
+      </c>
+      <c r="C191">
+        <v>0.3524397961180982</v>
+      </c>
+      <c r="D191">
+        <v>0.1556261176021294</v>
+      </c>
       <c r="E191">
-        <v>0.4919340862797754</v>
+        <v>0.309181218020643</v>
       </c>
       <c r="F191">
-        <v>0.3524397961180982</v>
+        <v>0.4136513807598595</v>
       </c>
       <c r="G191">
-        <v>0.1556261176021294</v>
+        <v>0.2771674012194976</v>
       </c>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="1">
         <v>190</v>
       </c>
+      <c r="B192">
+        <v>0.4920027427655456</v>
+      </c>
+      <c r="C192">
+        <v>0.3524178563063243</v>
+      </c>
+      <c r="D192">
+        <v>0.1555794009281309</v>
+      </c>
       <c r="E192">
-        <v>0.4920027427655456</v>
+        <v>0.004250856228947553</v>
       </c>
       <c r="F192">
-        <v>0.3524178563063243</v>
+        <v>0.4971525667144489</v>
       </c>
       <c r="G192">
-        <v>0.1555794009281309</v>
+        <v>0.4985965770566036</v>
       </c>
     </row>
     <row r="193" spans="1:7">
       <c r="A193" s="1">
         <v>191</v>
       </c>
+      <c r="B193">
+        <v>0.4920667944753659</v>
+      </c>
+      <c r="C193">
+        <v>0.3523973879916364</v>
+      </c>
+      <c r="D193">
+        <v>0.1555358175329981</v>
+      </c>
       <c r="E193">
-        <v>0.4920667944753659</v>
+        <v>0.2299882030165607</v>
       </c>
       <c r="F193">
-        <v>0.3523973879916364</v>
+        <v>0.4340684952953958</v>
       </c>
       <c r="G193">
-        <v>0.1555358175329981</v>
+        <v>0.3359433016880435</v>
       </c>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" s="1">
         <v>192</v>
       </c>
+      <c r="B194">
+        <v>0.4921265502714485</v>
+      </c>
+      <c r="C194">
+        <v>0.3523782924751382</v>
+      </c>
+      <c r="D194">
+        <v>0.1554951572534124</v>
+      </c>
       <c r="E194">
-        <v>0.4921265502714485</v>
+        <v>0.1684291250099782</v>
       </c>
       <c r="F194">
-        <v>0.3523782924751382</v>
+        <v>0.4778675061370041</v>
       </c>
       <c r="G194">
-        <v>0.1554951572534124</v>
+        <v>0.3537033688530177</v>
       </c>
     </row>
     <row r="195" spans="1:7">
       <c r="A195" s="1">
         <v>193</v>
       </c>
+      <c r="B195">
+        <v>0.4921822982668673</v>
+      </c>
+      <c r="C195">
+        <v>0.3523604776888201</v>
+      </c>
+      <c r="D195">
+        <v>0.1554572240443121</v>
+      </c>
       <c r="E195">
-        <v>0.4921822982668673</v>
+        <v>0.003342121476221784</v>
       </c>
       <c r="F195">
-        <v>0.3523604776888201</v>
+        <v>0.4086095471421332</v>
       </c>
       <c r="G195">
-        <v>0.1554572240443121</v>
+        <v>0.588048331381645</v>
       </c>
     </row>
     <row r="196" spans="1:7">
       <c r="A196" s="1">
         <v>194</v>
       </c>
+      <c r="B196">
+        <v>0.4922343072657426</v>
+      </c>
+      <c r="C196">
+        <v>0.3523438577331576</v>
+      </c>
+      <c r="D196">
+        <v>0.1554218350011035</v>
+      </c>
       <c r="E196">
-        <v>0.4922343072657426</v>
+        <v>0.0002688281468722367</v>
       </c>
       <c r="F196">
-        <v>0.3523438577331576</v>
+        <v>0.3397811507243828</v>
       </c>
       <c r="G196">
-        <v>0.1554218350011035</v>
+        <v>0.6599500211287451</v>
       </c>
     </row>
     <row r="197" spans="1:7">
       <c r="A197" s="1">
         <v>195</v>
       </c>
+      <c r="B197">
+        <v>0.4922828280428995</v>
+      </c>
+      <c r="C197">
+        <v>0.352328352471128</v>
+      </c>
+      <c r="D197">
+        <v>0.1553888194859746</v>
+      </c>
       <c r="E197">
-        <v>0.4922828280428995</v>
+        <v>0.05172471845182442</v>
       </c>
       <c r="F197">
-        <v>0.352328352471128</v>
+        <v>0.4858549664865738</v>
       </c>
       <c r="G197">
-        <v>0.1553888194859746</v>
+        <v>0.4624203150616019</v>
       </c>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" s="1">
         <v>196</v>
       </c>
+      <c r="B198">
+        <v>0.4923280945498799</v>
+      </c>
+      <c r="C198">
+        <v>0.3523138871409133</v>
+      </c>
+      <c r="D198">
+        <v>0.1553580183091991</v>
+      </c>
       <c r="E198">
-        <v>0.4923280945498799</v>
+        <v>0.003032243660503991</v>
       </c>
       <c r="F198">
-        <v>0.3523138871409133</v>
+        <v>0.4678087854849503</v>
       </c>
       <c r="G198">
-        <v>0.1553580183091991</v>
+        <v>0.5291589708545458</v>
       </c>
     </row>
     <row r="199" spans="1:7">
       <c r="A199" s="1">
         <v>197</v>
       </c>
+      <c r="B199">
+        <v>0.4923703250464285</v>
+      </c>
+      <c r="C199">
+        <v>0.3523003919950314</v>
+      </c>
+      <c r="D199">
+        <v>0.155329282958543</v>
+      </c>
       <c r="E199">
-        <v>0.4923703250464285</v>
+        <v>0.03517395054126433</v>
       </c>
       <c r="F199">
-        <v>0.3523003919950314</v>
+        <v>0.5011302916436365</v>
       </c>
       <c r="G199">
-        <v>0.155329282958543</v>
+        <v>0.4636957578150991</v>
       </c>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" s="1">
         <v>198</v>
       </c>
+      <c r="B200">
+        <v>0.4924097231662518</v>
+      </c>
+      <c r="C200">
+        <v>0.3522878019624946</v>
+      </c>
+      <c r="D200">
+        <v>0.1553024748712538</v>
+      </c>
       <c r="E200">
-        <v>0.4924097231662518</v>
+        <v>0.001936633949342398</v>
       </c>
       <c r="F200">
-        <v>0.3522878019624946</v>
+        <v>0.423866608397622</v>
       </c>
       <c r="G200">
-        <v>0.1553024748712538</v>
+        <v>0.5741967576530357</v>
       </c>
     </row>
     <row r="201" spans="1:7">
       <c r="A201" s="1">
         <v>199</v>
       </c>
+      <c r="B201">
+        <v>0.4924464788716661</v>
+      </c>
+      <c r="C201">
+        <v>0.3522760563382032</v>
+      </c>
+      <c r="D201">
+        <v>0.1552774647901306</v>
+      </c>
       <c r="E201">
-        <v>0.4924464788716661</v>
+        <v>0.05270837275057767</v>
       </c>
       <c r="F201">
-        <v>0.3522760563382032</v>
+        <v>0.4846574613997158</v>
       </c>
       <c r="G201">
-        <v>0.1552774647901306</v>
+        <v>0.4626341658497065</v>
       </c>
     </row>
   </sheetData>
